--- a/Code/Results/Cases/Case_4_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_45/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.605760394999436</v>
+        <v>2.60576039499972</v>
       </c>
       <c r="C2">
         <v>0.6593838067946933</v>
       </c>
       <c r="D2">
-        <v>0.2089540328693289</v>
+        <v>0.2089540328695847</v>
       </c>
       <c r="E2">
-        <v>0.2028372935238281</v>
+        <v>0.2028372935240199</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.999512508283388</v>
+        <v>0.9995125082833809</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.212523867568279</v>
+        <v>2.212523867568109</v>
       </c>
       <c r="C3">
-        <v>0.5566599599776509</v>
+        <v>0.556659959977992</v>
       </c>
       <c r="D3">
-        <v>0.1787626975322922</v>
+        <v>0.1787626975317238</v>
       </c>
       <c r="E3">
-        <v>0.1750329887574011</v>
+        <v>0.1750329887574154</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.743961453774773</v>
+        <v>7.743961453774915</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.8514529408905176</v>
+        <v>0.8514529408905673</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.980226020587651</v>
+        <v>1.980226020587935</v>
       </c>
       <c r="C4">
-        <v>0.4962389538146965</v>
+        <v>0.4962389538156629</v>
       </c>
       <c r="D4">
-        <v>0.1608087714699309</v>
+        <v>0.1608087714702577</v>
       </c>
       <c r="E4">
-        <v>0.1584878645325176</v>
+        <v>0.1584878645324963</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.04491009802436</v>
+        <v>7.044910098024332</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.7637753964045046</v>
+        <v>0.7637753964044478</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.887485728028537</v>
+        <v>1.887485728028878</v>
       </c>
       <c r="C5">
-        <v>0.4721660732193982</v>
+        <v>0.4721660732198245</v>
       </c>
       <c r="D5">
-        <v>0.1536148789500089</v>
+        <v>0.1536148789499663</v>
       </c>
       <c r="E5">
-        <v>0.1518562146661324</v>
+        <v>0.1518562146661822</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.764610565971282</v>
+        <v>6.764610565971253</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.7287249357278114</v>
+        <v>0.7287249357278185</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.872192390671842</v>
+        <v>1.872192390671955</v>
       </c>
       <c r="C6">
-        <v>0.4681988509375685</v>
+        <v>0.4681988509378243</v>
       </c>
       <c r="D6">
-        <v>0.1524270893652897</v>
+        <v>0.1524270893655597</v>
       </c>
       <c r="E6">
-        <v>0.1507611326774025</v>
+        <v>0.1507611326773102</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.718317674553077</v>
+        <v>6.718317674553305</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.7229422825976428</v>
+        <v>0.7229422825976002</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.978967966480894</v>
+        <v>1.978967966480809</v>
       </c>
       <c r="C7">
-        <v>0.4959122176034896</v>
+        <v>0.4959122176031769</v>
       </c>
       <c r="D7">
-        <v>0.160711285858099</v>
+        <v>0.1607112858582269</v>
       </c>
       <c r="E7">
-        <v>0.1583980065956325</v>
+        <v>0.158398006595597</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.041112541179302</v>
+        <v>7.041112541179103</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.7633001079080017</v>
+        <v>0.7633001079079946</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.468027015414236</v>
+        <v>2.468027015414407</v>
       </c>
       <c r="C8">
-        <v>0.6233374141289403</v>
+        <v>0.6233374141284003</v>
       </c>
       <c r="D8">
-        <v>0.198407152841682</v>
+        <v>0.1984071528420657</v>
       </c>
       <c r="E8">
-        <v>0.1931268650293418</v>
+        <v>0.1931268650293703</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.5081724287258</v>
+        <v>8.508172428725885</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.9477038635726132</v>
+        <v>0.9477038635725989</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,19 +681,19 @@
         <v>3.520423450576459</v>
       </c>
       <c r="C9">
-        <v>0.9007638139781307</v>
+        <v>0.9007638139777612</v>
       </c>
       <c r="D9">
-        <v>0.2782822358889803</v>
+        <v>0.278282235889435</v>
       </c>
       <c r="E9">
-        <v>0.2665950321593087</v>
+        <v>0.2665950321593513</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.61114184305598</v>
+        <v>11.61114184305595</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.38730007136985</v>
+        <v>4.387300071369452</v>
       </c>
       <c r="C10">
-        <v>1.133023900126915</v>
+        <v>1.133023900127</v>
       </c>
       <c r="D10">
-        <v>0.3429171641692648</v>
+        <v>0.3429171641690658</v>
       </c>
       <c r="E10">
-        <v>0.3259126501808112</v>
+        <v>0.3259126501808183</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>14.11967751332651</v>
+        <v>14.11967751332671</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.665190864568601</v>
+        <v>1.665190864568515</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.813450283355564</v>
+        <v>4.813450283355792</v>
       </c>
       <c r="C11">
-        <v>1.2485296085014</v>
+        <v>1.248529608501372</v>
       </c>
       <c r="D11">
-        <v>0.3743263949998266</v>
+        <v>0.3743263949996987</v>
       </c>
       <c r="E11">
-        <v>0.3546894490173074</v>
+        <v>0.3546894490173287</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>15.33850386749526</v>
+        <v>15.33850386749532</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.980718270796444</v>
+        <v>4.980718270797126</v>
       </c>
       <c r="C12">
-        <v>1.294113753108434</v>
+        <v>1.294113753108775</v>
       </c>
       <c r="D12">
-        <v>0.3865902762016731</v>
+        <v>0.3865902762015878</v>
       </c>
       <c r="E12">
-        <v>0.365916186906496</v>
+        <v>0.3659161869064675</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15.81440866468171</v>
+        <v>15.81440866468188</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.885193303110583</v>
+        <v>1.885193303110569</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.944406486019034</v>
+        <v>4.944406486019261</v>
       </c>
       <c r="C13">
-        <v>1.284206041153027</v>
+        <v>1.284206041153595</v>
       </c>
       <c r="D13">
-        <v>0.3839310181154474</v>
+        <v>0.38393101811576</v>
       </c>
       <c r="E13">
-        <v>0.363482275834933</v>
+        <v>0.3634822758349898</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.827084366743804</v>
+        <v>4.827084366743861</v>
       </c>
       <c r="C14">
-        <v>1.252239932257424</v>
+        <v>1.252239932257709</v>
       </c>
       <c r="D14">
-        <v>0.3753273856550976</v>
+        <v>0.3753273856552681</v>
       </c>
       <c r="E14">
-        <v>0.3556059872026367</v>
+        <v>0.3556059872026651</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>15.37734730683775</v>
+        <v>15.3773473068382</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.756034860450256</v>
+        <v>4.7560348604502</v>
       </c>
       <c r="C15">
         <v>1.232915007445087</v>
       </c>
       <c r="D15">
-        <v>0.3701084078717969</v>
+        <v>0.370108407871129</v>
       </c>
       <c r="E15">
-        <v>0.3508269423380312</v>
+        <v>0.3508269423379247</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>15.17482545889942</v>
+        <v>15.17482545889931</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.801993522018975</v>
+        <v>1.801993522018947</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.360194310206566</v>
+        <v>4.360194310206396</v>
       </c>
       <c r="C16">
-        <v>1.125707226047354</v>
+        <v>1.125707226046757</v>
       </c>
       <c r="D16">
         <v>0.3409113066802263</v>
       </c>
       <c r="E16">
-        <v>0.3240737789768389</v>
+        <v>0.324073778976846</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>14.04183982223819</v>
+        <v>14.04183982223822</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.126328564064579</v>
+        <v>4.126328564065318</v>
       </c>
       <c r="C17">
-        <v>1.062727476956695</v>
+        <v>1.062727476956155</v>
       </c>
       <c r="D17">
         <v>0.3235647048758068</v>
       </c>
       <c r="E17">
-        <v>0.3081658318710936</v>
+        <v>0.308165831871051</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.368684436981</v>
+        <v>13.36868443698097</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.99471097592027</v>
+        <v>3.994710975920043</v>
       </c>
       <c r="C18">
-        <v>1.027398425630309</v>
+        <v>1.027398425631162</v>
       </c>
       <c r="D18">
-        <v>0.3137702696741087</v>
+        <v>0.3137702696733413</v>
       </c>
       <c r="E18">
-        <v>0.2991794891868977</v>
+        <v>0.2991794891869546</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>12.98858002015959</v>
+        <v>12.9885800201595</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.519178594792109</v>
+        <v>1.519178594792052</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.950610678768953</v>
+        <v>3.950610678768726</v>
       </c>
       <c r="C19">
-        <v>1.015579340542047</v>
+        <v>1.015579340541393</v>
       </c>
       <c r="D19">
-        <v>0.3104833326000005</v>
+        <v>0.3104833325993752</v>
       </c>
       <c r="E19">
-        <v>0.2961630744786419</v>
+        <v>0.2961630744786135</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.86101558659072</v>
+        <v>12.86101558659092</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.502753372013075</v>
+        <v>1.502753372013103</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.150915919518468</v>
+        <v>4.150915919518809</v>
       </c>
       <c r="C20">
-        <v>1.069336430244022</v>
+        <v>1.069336430243595</v>
       </c>
       <c r="D20">
-        <v>0.3253918372384135</v>
+        <v>0.3253918372389109</v>
       </c>
       <c r="E20">
-        <v>0.3098418831024574</v>
+        <v>0.3098418831025356</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.4395903046339</v>
+        <v>13.4395903046337</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.577319258618786</v>
+        <v>1.577319258618815</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.861372187310053</v>
+        <v>4.861372187309883</v>
       </c>
       <c r="C21">
-        <v>1.261574995579963</v>
+        <v>1.261574995579451</v>
       </c>
       <c r="D21">
-        <v>0.3778436725519612</v>
+        <v>0.3778436725516201</v>
       </c>
       <c r="E21">
-        <v>0.3579098215461372</v>
+        <v>0.3579098215461443</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>15.47499208223792</v>
+        <v>15.47499208223775</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.841014652511689</v>
+        <v>1.841014652511618</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,19 +1175,19 @@
         <v>5.360995823418477</v>
       </c>
       <c r="C22">
-        <v>1.398275568148392</v>
+        <v>1.39827556814916</v>
       </c>
       <c r="D22">
-        <v>0.4143374014878844</v>
+        <v>0.4143374014880408</v>
       </c>
       <c r="E22">
-        <v>0.3912964977270761</v>
+        <v>0.3912964977271898</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>16.89121074839829</v>
+        <v>16.8912107483979</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.025736388554577</v>
+        <v>2.025736388554634</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.090555145676319</v>
+        <v>5.090555145675808</v>
       </c>
       <c r="C23">
-        <v>1.324123470521357</v>
+        <v>1.324123470520817</v>
       </c>
       <c r="D23">
-        <v>0.3946237063876481</v>
+        <v>0.3946237063878471</v>
       </c>
       <c r="E23">
-        <v>0.3732673026656315</v>
+        <v>0.3732673026655959</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.925822029472883</v>
+        <v>1.925822029472926</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.139791239722513</v>
+        <v>4.139791239723024</v>
       </c>
       <c r="C24">
-        <v>1.066345815413428</v>
+        <v>1.066345815413968</v>
       </c>
       <c r="D24">
-        <v>0.3245652409470949</v>
+        <v>0.3245652409474218</v>
       </c>
       <c r="E24">
-        <v>0.3090836491219946</v>
+        <v>0.309083649121952</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.40751249215535</v>
+        <v>13.40751249215532</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.573180528850074</v>
+        <v>1.573180528850045</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.22243361212935</v>
+        <v>3.222433612129805</v>
       </c>
       <c r="C25">
-        <v>0.8217263714289516</v>
+        <v>0.8217263714288663</v>
       </c>
       <c r="D25">
-        <v>0.255827366524187</v>
+        <v>0.2558273665238744</v>
       </c>
       <c r="E25">
-        <v>0.2459585774277144</v>
+        <v>0.2459585774277642</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.230846532541328</v>
+        <v>1.230846532541335</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_45/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.60576039499972</v>
+        <v>2.605760394999436</v>
       </c>
       <c r="C2">
         <v>0.6593838067946933</v>
       </c>
       <c r="D2">
-        <v>0.2089540328695847</v>
+        <v>0.2089540328693289</v>
       </c>
       <c r="E2">
-        <v>0.2028372935240199</v>
+        <v>0.2028372935238281</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.9995125082833809</v>
+        <v>0.999512508283388</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.212523867568109</v>
+        <v>2.212523867568279</v>
       </c>
       <c r="C3">
-        <v>0.556659959977992</v>
+        <v>0.5566599599776509</v>
       </c>
       <c r="D3">
-        <v>0.1787626975317238</v>
+        <v>0.1787626975322922</v>
       </c>
       <c r="E3">
-        <v>0.1750329887574154</v>
+        <v>0.1750329887574011</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.743961453774915</v>
+        <v>7.743961453774773</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.8514529408905673</v>
+        <v>0.8514529408905176</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.980226020587935</v>
+        <v>1.980226020587651</v>
       </c>
       <c r="C4">
-        <v>0.4962389538156629</v>
+        <v>0.4962389538146965</v>
       </c>
       <c r="D4">
-        <v>0.1608087714702577</v>
+        <v>0.1608087714699309</v>
       </c>
       <c r="E4">
-        <v>0.1584878645324963</v>
+        <v>0.1584878645325176</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.044910098024332</v>
+        <v>7.04491009802436</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.7637753964044478</v>
+        <v>0.7637753964045046</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.887485728028878</v>
+        <v>1.887485728028537</v>
       </c>
       <c r="C5">
-        <v>0.4721660732198245</v>
+        <v>0.4721660732193982</v>
       </c>
       <c r="D5">
-        <v>0.1536148789499663</v>
+        <v>0.1536148789500089</v>
       </c>
       <c r="E5">
-        <v>0.1518562146661822</v>
+        <v>0.1518562146661324</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.764610565971253</v>
+        <v>6.764610565971282</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.7287249357278185</v>
+        <v>0.7287249357278114</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.872192390671955</v>
+        <v>1.872192390671842</v>
       </c>
       <c r="C6">
-        <v>0.4681988509378243</v>
+        <v>0.4681988509375685</v>
       </c>
       <c r="D6">
-        <v>0.1524270893655597</v>
+        <v>0.1524270893652897</v>
       </c>
       <c r="E6">
-        <v>0.1507611326773102</v>
+        <v>0.1507611326774025</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.718317674553305</v>
+        <v>6.718317674553077</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.7229422825976002</v>
+        <v>0.7229422825976428</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.978967966480809</v>
+        <v>1.978967966480894</v>
       </c>
       <c r="C7">
-        <v>0.4959122176031769</v>
+        <v>0.4959122176034896</v>
       </c>
       <c r="D7">
-        <v>0.1607112858582269</v>
+        <v>0.160711285858099</v>
       </c>
       <c r="E7">
-        <v>0.158398006595597</v>
+        <v>0.1583980065956325</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.041112541179103</v>
+        <v>7.041112541179302</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.7633001079079946</v>
+        <v>0.7633001079080017</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.468027015414407</v>
+        <v>2.468027015414236</v>
       </c>
       <c r="C8">
-        <v>0.6233374141284003</v>
+        <v>0.6233374141289403</v>
       </c>
       <c r="D8">
-        <v>0.1984071528420657</v>
+        <v>0.198407152841682</v>
       </c>
       <c r="E8">
-        <v>0.1931268650293703</v>
+        <v>0.1931268650293418</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.508172428725885</v>
+        <v>8.5081724287258</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.9477038635725989</v>
+        <v>0.9477038635726132</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,19 +681,19 @@
         <v>3.520423450576459</v>
       </c>
       <c r="C9">
-        <v>0.9007638139777612</v>
+        <v>0.9007638139781307</v>
       </c>
       <c r="D9">
-        <v>0.278282235889435</v>
+        <v>0.2782822358889803</v>
       </c>
       <c r="E9">
-        <v>0.2665950321593513</v>
+        <v>0.2665950321593087</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.61114184305595</v>
+        <v>11.61114184305598</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.387300071369452</v>
+        <v>4.38730007136985</v>
       </c>
       <c r="C10">
-        <v>1.133023900127</v>
+        <v>1.133023900126915</v>
       </c>
       <c r="D10">
-        <v>0.3429171641690658</v>
+        <v>0.3429171641692648</v>
       </c>
       <c r="E10">
-        <v>0.3259126501808183</v>
+        <v>0.3259126501808112</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>14.11967751332671</v>
+        <v>14.11967751332651</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.665190864568515</v>
+        <v>1.665190864568601</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.813450283355792</v>
+        <v>4.813450283355564</v>
       </c>
       <c r="C11">
-        <v>1.248529608501372</v>
+        <v>1.2485296085014</v>
       </c>
       <c r="D11">
-        <v>0.3743263949996987</v>
+        <v>0.3743263949998266</v>
       </c>
       <c r="E11">
-        <v>0.3546894490173287</v>
+        <v>0.3546894490173074</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>15.33850386749532</v>
+        <v>15.33850386749526</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.980718270797126</v>
+        <v>4.980718270796444</v>
       </c>
       <c r="C12">
-        <v>1.294113753108775</v>
+        <v>1.294113753108434</v>
       </c>
       <c r="D12">
-        <v>0.3865902762015878</v>
+        <v>0.3865902762016731</v>
       </c>
       <c r="E12">
-        <v>0.3659161869064675</v>
+        <v>0.365916186906496</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15.81440866468188</v>
+        <v>15.81440866468171</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.885193303110569</v>
+        <v>1.885193303110583</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.944406486019261</v>
+        <v>4.944406486019034</v>
       </c>
       <c r="C13">
-        <v>1.284206041153595</v>
+        <v>1.284206041153027</v>
       </c>
       <c r="D13">
-        <v>0.38393101811576</v>
+        <v>0.3839310181154474</v>
       </c>
       <c r="E13">
-        <v>0.3634822758349898</v>
+        <v>0.363482275834933</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.827084366743861</v>
+        <v>4.827084366743804</v>
       </c>
       <c r="C14">
-        <v>1.252239932257709</v>
+        <v>1.252239932257424</v>
       </c>
       <c r="D14">
-        <v>0.3753273856552681</v>
+        <v>0.3753273856550976</v>
       </c>
       <c r="E14">
-        <v>0.3556059872026651</v>
+        <v>0.3556059872026367</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>15.3773473068382</v>
+        <v>15.37734730683775</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.7560348604502</v>
+        <v>4.756034860450256</v>
       </c>
       <c r="C15">
         <v>1.232915007445087</v>
       </c>
       <c r="D15">
-        <v>0.370108407871129</v>
+        <v>0.3701084078717969</v>
       </c>
       <c r="E15">
-        <v>0.3508269423379247</v>
+        <v>0.3508269423380312</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>15.17482545889931</v>
+        <v>15.17482545889942</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.801993522018947</v>
+        <v>1.801993522018975</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.360194310206396</v>
+        <v>4.360194310206566</v>
       </c>
       <c r="C16">
-        <v>1.125707226046757</v>
+        <v>1.125707226047354</v>
       </c>
       <c r="D16">
         <v>0.3409113066802263</v>
       </c>
       <c r="E16">
-        <v>0.324073778976846</v>
+        <v>0.3240737789768389</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>14.04183982223822</v>
+        <v>14.04183982223819</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.126328564065318</v>
+        <v>4.126328564064579</v>
       </c>
       <c r="C17">
-        <v>1.062727476956155</v>
+        <v>1.062727476956695</v>
       </c>
       <c r="D17">
         <v>0.3235647048758068</v>
       </c>
       <c r="E17">
-        <v>0.308165831871051</v>
+        <v>0.3081658318710936</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.36868443698097</v>
+        <v>13.368684436981</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.994710975920043</v>
+        <v>3.99471097592027</v>
       </c>
       <c r="C18">
-        <v>1.027398425631162</v>
+        <v>1.027398425630309</v>
       </c>
       <c r="D18">
-        <v>0.3137702696733413</v>
+        <v>0.3137702696741087</v>
       </c>
       <c r="E18">
-        <v>0.2991794891869546</v>
+        <v>0.2991794891868977</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>12.9885800201595</v>
+        <v>12.98858002015959</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.519178594792052</v>
+        <v>1.519178594792109</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.950610678768726</v>
+        <v>3.950610678768953</v>
       </c>
       <c r="C19">
-        <v>1.015579340541393</v>
+        <v>1.015579340542047</v>
       </c>
       <c r="D19">
-        <v>0.3104833325993752</v>
+        <v>0.3104833326000005</v>
       </c>
       <c r="E19">
-        <v>0.2961630744786135</v>
+        <v>0.2961630744786419</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.86101558659092</v>
+        <v>12.86101558659072</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.502753372013103</v>
+        <v>1.502753372013075</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.150915919518809</v>
+        <v>4.150915919518468</v>
       </c>
       <c r="C20">
-        <v>1.069336430243595</v>
+        <v>1.069336430244022</v>
       </c>
       <c r="D20">
-        <v>0.3253918372389109</v>
+        <v>0.3253918372384135</v>
       </c>
       <c r="E20">
-        <v>0.3098418831025356</v>
+        <v>0.3098418831024574</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.4395903046337</v>
+        <v>13.4395903046339</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.577319258618815</v>
+        <v>1.577319258618786</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.861372187309883</v>
+        <v>4.861372187310053</v>
       </c>
       <c r="C21">
-        <v>1.261574995579451</v>
+        <v>1.261574995579963</v>
       </c>
       <c r="D21">
-        <v>0.3778436725516201</v>
+        <v>0.3778436725519612</v>
       </c>
       <c r="E21">
-        <v>0.3579098215461443</v>
+        <v>0.3579098215461372</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>15.47499208223775</v>
+        <v>15.47499208223792</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.841014652511618</v>
+        <v>1.841014652511689</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,19 +1175,19 @@
         <v>5.360995823418477</v>
       </c>
       <c r="C22">
-        <v>1.39827556814916</v>
+        <v>1.398275568148392</v>
       </c>
       <c r="D22">
-        <v>0.4143374014880408</v>
+        <v>0.4143374014878844</v>
       </c>
       <c r="E22">
-        <v>0.3912964977271898</v>
+        <v>0.3912964977270761</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>16.8912107483979</v>
+        <v>16.89121074839829</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.025736388554634</v>
+        <v>2.025736388554577</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.090555145675808</v>
+        <v>5.090555145676319</v>
       </c>
       <c r="C23">
-        <v>1.324123470520817</v>
+        <v>1.324123470521357</v>
       </c>
       <c r="D23">
-        <v>0.3946237063878471</v>
+        <v>0.3946237063876481</v>
       </c>
       <c r="E23">
-        <v>0.3732673026655959</v>
+        <v>0.3732673026656315</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.925822029472926</v>
+        <v>1.925822029472883</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.139791239723024</v>
+        <v>4.139791239722513</v>
       </c>
       <c r="C24">
-        <v>1.066345815413968</v>
+        <v>1.066345815413428</v>
       </c>
       <c r="D24">
-        <v>0.3245652409474218</v>
+        <v>0.3245652409470949</v>
       </c>
       <c r="E24">
-        <v>0.309083649121952</v>
+        <v>0.3090836491219946</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.40751249215532</v>
+        <v>13.40751249215535</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.573180528850045</v>
+        <v>1.573180528850074</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.222433612129805</v>
+        <v>3.22243361212935</v>
       </c>
       <c r="C25">
-        <v>0.8217263714288663</v>
+        <v>0.8217263714289516</v>
       </c>
       <c r="D25">
-        <v>0.2558273665238744</v>
+        <v>0.255827366524187</v>
       </c>
       <c r="E25">
-        <v>0.2459585774277642</v>
+        <v>0.2459585774277144</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.230846532541335</v>
+        <v>1.230846532541328</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_45/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,31 +406,34 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.605760394999436</v>
+        <v>2.604771246965925</v>
       </c>
       <c r="C2">
-        <v>0.6593838067946933</v>
+        <v>0.6588959501338536</v>
       </c>
       <c r="D2">
-        <v>0.2089540328693289</v>
+        <v>0.2089184150916026</v>
       </c>
       <c r="E2">
-        <v>0.2028372935238281</v>
+        <v>0.2027911875630863</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8.918239186890673</v>
+        <v>2.91939934686323</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>5.948521031157043</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,33 +445,36 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.999512508283388</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.9992825761950215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.212523867568279</v>
+        <v>2.211874548232515</v>
       </c>
       <c r="C3">
-        <v>0.5566599599776509</v>
+        <v>0.5563190483830169</v>
       </c>
       <c r="D3">
-        <v>0.1787626975322922</v>
+        <v>0.1787389726558075</v>
       </c>
       <c r="E3">
-        <v>0.1750329887574011</v>
+        <v>0.1749974551975839</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.743961453774773</v>
+        <v>2.527237720239725</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5.174204109017552</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,33 +486,36 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.8514529408905176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.8513045599658184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.980226020587651</v>
+        <v>1.979746953993185</v>
       </c>
       <c r="C4">
-        <v>0.4962389538146965</v>
+        <v>0.4959744932176307</v>
       </c>
       <c r="D4">
-        <v>0.1608087714699309</v>
+        <v>0.160790947617599</v>
       </c>
       <c r="E4">
-        <v>0.1584878645325176</v>
+        <v>0.1584582041872551</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.04491009802436</v>
+        <v>2.293715796475936</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4.71328584322427</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,33 +527,36 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.7637753964045046</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.7636672364436095</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.887485728028537</v>
+        <v>1.88706819180598</v>
       </c>
       <c r="C5">
-        <v>0.4721660732193982</v>
+        <v>0.4719299646793331</v>
       </c>
       <c r="D5">
-        <v>0.1536148789500089</v>
+        <v>0.1535991835360306</v>
       </c>
       <c r="E5">
-        <v>0.1518562146661324</v>
+        <v>0.1518288386907827</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.764610565971282</v>
+        <v>2.20006450060049</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4.528481000187355</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,33 +568,36 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.7287249357278114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.7286311793891187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.872192390671842</v>
+        <v>1.87178464345655</v>
       </c>
       <c r="C6">
-        <v>0.4681988509375685</v>
+        <v>0.4679672978279257</v>
       </c>
       <c r="D6">
-        <v>0.1524270893652897</v>
+        <v>0.1524117326018199</v>
       </c>
       <c r="E6">
-        <v>0.1507611326774025</v>
+        <v>0.1507341305840058</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.718317674553077</v>
+        <v>2.184596592516783</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4.497960188611358</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,33 +609,36 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.7229422825976428</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.7228508103613152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.978967966480894</v>
+        <v>1.97848975936418</v>
       </c>
       <c r="C7">
-        <v>0.4959122176034896</v>
+        <v>0.4956481499405641</v>
       </c>
       <c r="D7">
-        <v>0.160711285858099</v>
+        <v>0.1606934917411422</v>
       </c>
       <c r="E7">
-        <v>0.1583980065956325</v>
+        <v>0.1583683774464077</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.041112541179302</v>
+        <v>2.292447051718824</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4.710782025564015</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,33 +650,36 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.7633001079080017</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.7631921496713829</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.468027015414236</v>
+        <v>2.467164225850638</v>
       </c>
       <c r="C8">
-        <v>0.6233374141289403</v>
+        <v>0.622903526748928</v>
       </c>
       <c r="D8">
-        <v>0.198407152841682</v>
+        <v>0.1983759781932264</v>
       </c>
       <c r="E8">
-        <v>0.1931268650293418</v>
+        <v>0.1930845646518904</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.5081724287258</v>
+        <v>2.782468407674997</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5.678117130140151</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,33 +691,36 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.9477038635726132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.9475044266121699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.520423450576459</v>
+        <v>3.518393580228064</v>
       </c>
       <c r="C9">
-        <v>0.9007638139781307</v>
+        <v>0.8998481600979744</v>
       </c>
       <c r="D9">
-        <v>0.2782822358889803</v>
+        <v>0.27820903232913</v>
       </c>
       <c r="E9">
-        <v>0.2665950321593087</v>
+        <v>0.2665200354537092</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.61114184305598</v>
+        <v>3.818275972366251</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.724332206629185</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,33 +732,36 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.342278426176691</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1.341791614221123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.38730007136985</v>
+        <v>4.383946072541221</v>
       </c>
       <c r="C10">
-        <v>1.133023900126915</v>
+        <v>1.131585474046858</v>
       </c>
       <c r="D10">
-        <v>0.3429171641692648</v>
+        <v>0.3427939029409544</v>
       </c>
       <c r="E10">
-        <v>0.3259126501808112</v>
+        <v>0.3258026195364749</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>14.11967751332651</v>
+        <v>4.655132883735547</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9.378501691523695</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -746,33 +773,36 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.665190864568601</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.664366761101149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.813450283355564</v>
+        <v>4.809314680295131</v>
       </c>
       <c r="C11">
-        <v>1.2485296085014</v>
+        <v>1.246788493804928</v>
       </c>
       <c r="D11">
-        <v>0.3743263949998266</v>
+        <v>0.3741726200873643</v>
       </c>
       <c r="E11">
-        <v>0.3546894490173074</v>
+        <v>0.3545586690677851</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>15.33850386749526</v>
+        <v>5.061582081129643</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>10.18213491823997</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,33 +814,36 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.823265749813345</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1.82223847477195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.980718270796444</v>
+        <v>4.976250649248584</v>
       </c>
       <c r="C12">
-        <v>1.294113753108434</v>
+        <v>1.292244979816587</v>
       </c>
       <c r="D12">
-        <v>0.3865902762016731</v>
+        <v>0.386423350295459</v>
       </c>
       <c r="E12">
-        <v>0.365916186906496</v>
+        <v>0.3657765220607274</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15.81440866468171</v>
+        <v>5.220257260647656</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>10.49590203398424</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -822,33 +855,36 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.885193303110583</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1.884078946783418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.944406486019034</v>
+        <v>4.940012186630895</v>
       </c>
       <c r="C13">
-        <v>1.284206041153027</v>
+        <v>1.282365418101364</v>
       </c>
       <c r="D13">
-        <v>0.3839310181154474</v>
+        <v>0.3837670056402942</v>
       </c>
       <c r="E13">
-        <v>0.363482275834933</v>
+        <v>0.3633445773569122</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>15.71121405626508</v>
+        <v>5.185851655714146</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10.42786626518068</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,33 +896,36 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.871755256092712</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1.870660168106212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.827084366743804</v>
+        <v>4.822922245646112</v>
       </c>
       <c r="C14">
-        <v>1.252239932257424</v>
+        <v>1.250488603342433</v>
       </c>
       <c r="D14">
-        <v>0.3753273856550976</v>
+        <v>0.3751725643571859</v>
       </c>
       <c r="E14">
-        <v>0.3556059872026367</v>
+        <v>0.3554744993906951</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>15.37734730683775</v>
+        <v>5.074533762959732</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>10.20774512635984</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,33 +937,36 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.82831598045</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1.827281766523853</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.756034860450256</v>
+        <v>4.752009880983508</v>
       </c>
       <c r="C15">
-        <v>1.232915007445087</v>
+        <v>1.231216538672527</v>
       </c>
       <c r="D15">
-        <v>0.3701084078717969</v>
+        <v>0.369958990495121</v>
       </c>
       <c r="E15">
-        <v>0.3508269423380312</v>
+        <v>0.3506991122093481</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>15.17482545889942</v>
+        <v>5.007005173605648</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>10.07421778254394</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,33 +978,36 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.801993522018975</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1.800995162355576</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.360194310206566</v>
+        <v>4.356887001217274</v>
       </c>
       <c r="C16">
-        <v>1.125707226047354</v>
+        <v>1.124286992965409</v>
       </c>
       <c r="D16">
-        <v>0.3409113066802263</v>
+        <v>0.3407898471997157</v>
       </c>
       <c r="E16">
-        <v>0.3240737789768389</v>
+        <v>0.3239649822429485</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>14.04183982223819</v>
+        <v>4.62917245244401</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>9.327177146393922</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -974,33 +1019,36 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.655121618311426</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.654309564506065</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.126328564064579</v>
+        <v>4.123409551258362</v>
       </c>
       <c r="C17">
-        <v>1.062727476956695</v>
+        <v>1.061459124579699</v>
       </c>
       <c r="D17">
-        <v>0.3235647048758068</v>
+        <v>0.3234581314011962</v>
       </c>
       <c r="E17">
-        <v>0.3081658318710936</v>
+        <v>0.3080672849190123</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.368684436981</v>
+        <v>4.404644388850897</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>8.88330311766245</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,33 +1060,36 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.568171589957686</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1.567459335375105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.99471097592027</v>
+        <v>3.991999231873535</v>
       </c>
       <c r="C18">
-        <v>1.027398425630309</v>
+        <v>1.026211614243209</v>
       </c>
       <c r="D18">
-        <v>0.3137702696741087</v>
+        <v>0.3136715676206876</v>
       </c>
       <c r="E18">
-        <v>0.2991794891868977</v>
+        <v>0.2990864114514693</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>12.98858002015959</v>
+        <v>4.277848499141953</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>8.632658250268605</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,33 +1101,36 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.519178594792109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1.518519296293078</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.950610678768953</v>
+        <v>3.947966600372638</v>
       </c>
       <c r="C19">
-        <v>1.015579340542047</v>
+        <v>1.014419228139673</v>
       </c>
       <c r="D19">
-        <v>0.3104833326000005</v>
+        <v>0.3103871885738982</v>
       </c>
       <c r="E19">
-        <v>0.2961630744786419</v>
+        <v>0.2960717832184301</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.86101558659072</v>
+        <v>4.235293103421895</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8.548539988059389</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1088,33 +1142,36 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.502753372013075</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1.502111311593353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.150915919518468</v>
+        <v>4.147957296131835</v>
       </c>
       <c r="C20">
-        <v>1.069336430244022</v>
+        <v>1.068052534027004</v>
       </c>
       <c r="D20">
-        <v>0.3253918372384135</v>
+        <v>0.3252837534450492</v>
       </c>
       <c r="E20">
-        <v>0.3098418831024574</v>
+        <v>0.3097422911064811</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.4395903046339</v>
+        <v>4.42829619313261</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>8.930058702536201</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,33 +1183,36 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.577319258618786</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1.576596858052199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.861372187310053</v>
+        <v>4.857142952371248</v>
       </c>
       <c r="C21">
-        <v>1.261574995579963</v>
+        <v>1.25979783028825</v>
       </c>
       <c r="D21">
-        <v>0.3778436725519612</v>
+        <v>0.3776861998634615</v>
       </c>
       <c r="E21">
-        <v>0.3579098215461372</v>
+        <v>0.357776540891976</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>15.47499208223792</v>
+        <v>5.107091289217919</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>10.27212379246618</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,33 +1224,36 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.841014652511689</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1.839962864388312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.360995823418477</v>
+        <v>5.355717530960703</v>
       </c>
       <c r="C22">
-        <v>1.398275568148392</v>
+        <v>1.396096950132147</v>
       </c>
       <c r="D22">
-        <v>0.4143374014878844</v>
+        <v>0.4141379344495988</v>
       </c>
       <c r="E22">
-        <v>0.3912964977270761</v>
+        <v>0.3911349154870081</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>16.89121074839829</v>
+        <v>5.579224249240383</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>11.20579276009261</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,33 +1265,36 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.025736388554577</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>2.024407656932709</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.090555145676319</v>
+        <v>5.085861468349549</v>
       </c>
       <c r="C23">
-        <v>1.324123470521357</v>
+        <v>1.322168048154538</v>
       </c>
       <c r="D23">
-        <v>0.3946237063876481</v>
+        <v>0.3944477662862056</v>
       </c>
       <c r="E23">
-        <v>0.3732673026656315</v>
+        <v>0.3731215594082258</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>16.12615674512836</v>
+        <v>5.324191169606138</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>10.7014323121582</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,33 +1306,36 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.925822029472883</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1.924648137861283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.139791239722513</v>
+        <v>4.136850573309232</v>
       </c>
       <c r="C24">
-        <v>1.066345815413428</v>
+        <v>1.065068964306249</v>
       </c>
       <c r="D24">
-        <v>0.3245652409470949</v>
+        <v>0.3244578420744091</v>
       </c>
       <c r="E24">
-        <v>0.3090836491219946</v>
+        <v>0.3089845308866117</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.40751249215535</v>
+        <v>4.417596160223042</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.90890649749025</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,33 +1347,36 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.573180528850074</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1.572462728844442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.22243361212935</v>
+        <v>3.22078169354171</v>
       </c>
       <c r="C25">
-        <v>0.8217263714289516</v>
+        <v>0.8209635354055251</v>
       </c>
       <c r="D25">
-        <v>0.255827366524187</v>
+        <v>0.2557680112925738</v>
       </c>
       <c r="E25">
-        <v>0.2459585774277144</v>
+        <v>0.2458937700975099</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>10.73930752426369</v>
+        <v>3.527324124552592</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.14940438633576</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1388,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.230846532541328</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1.230454028907168</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_45/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,37 +409,43 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.604771246965925</v>
+        <v>3.451566431429569</v>
       </c>
       <c r="C2">
-        <v>0.6588959501338536</v>
+        <v>0.9045872080660899</v>
       </c>
       <c r="D2">
-        <v>0.2089184150916026</v>
+        <v>0.5582067614339508</v>
       </c>
       <c r="E2">
-        <v>0.2027911875630863</v>
+        <v>0.2495553855026884</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.91939934686323</v>
+        <v>0.0007995581278412711</v>
       </c>
       <c r="H2">
-        <v>5.948521031157043</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1480985197770934</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -448,39 +454,45 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9992825761950215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>9.095459194660123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.211874548232515</v>
+        <v>2.966257708633805</v>
       </c>
       <c r="C3">
-        <v>0.5563190483830169</v>
+        <v>0.7698818401526921</v>
       </c>
       <c r="D3">
-        <v>0.1787389726558075</v>
+        <v>0.4995738904619031</v>
       </c>
       <c r="E3">
-        <v>0.1749974551975839</v>
+        <v>0.2218328574912576</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.527237720239725</v>
+        <v>0.0008151675177053588</v>
       </c>
       <c r="H3">
-        <v>5.174204109017552</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1305084115228681</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -489,39 +501,45 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8513045599658184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>7.996642759990664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.979746953993185</v>
+        <v>2.681638080316191</v>
       </c>
       <c r="C4">
-        <v>0.4959744932176307</v>
+        <v>0.6913547534760767</v>
       </c>
       <c r="D4">
-        <v>0.160790947617599</v>
+        <v>0.4653112189056685</v>
       </c>
       <c r="E4">
-        <v>0.1584582041872551</v>
+        <v>0.2056160680373367</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.293715796475936</v>
+        <v>0.0008248434987749863</v>
       </c>
       <c r="H4">
-        <v>4.71328584322427</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1202064649220205</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -530,39 +548,45 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7636672364436095</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>7.345707864361913</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.88706819180598</v>
+        <v>2.568498622223103</v>
       </c>
       <c r="C5">
-        <v>0.4719299646793331</v>
+        <v>0.6602388041233382</v>
       </c>
       <c r="D5">
-        <v>0.1535991835360306</v>
+        <v>0.4517247135836726</v>
       </c>
       <c r="E5">
-        <v>0.1518288386907827</v>
+        <v>0.1991808895025073</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.20006450060049</v>
+        <v>0.0008288179074081941</v>
       </c>
       <c r="H5">
-        <v>4.528481000187355</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1161150559202468</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -571,39 +595,45 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7286311793891187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>7.085404217771696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.87178464345655</v>
+        <v>2.549870182784957</v>
       </c>
       <c r="C6">
-        <v>0.4679672978279257</v>
+        <v>0.6551210497803481</v>
       </c>
       <c r="D6">
-        <v>0.1524117326018199</v>
+        <v>0.4494897636606652</v>
       </c>
       <c r="E6">
-        <v>0.1507341305840058</v>
+        <v>0.1981220303280082</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.184596592516783</v>
+        <v>0.0008294799693117304</v>
       </c>
       <c r="H6">
-        <v>4.497960188611358</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1154416343933278</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -612,39 +642,45 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7228508103613152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>7.042453604615361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.97848975936418</v>
+        <v>2.680101344378613</v>
       </c>
       <c r="C7">
-        <v>0.4956481499405641</v>
+        <v>0.690931733581408</v>
       </c>
       <c r="D7">
-        <v>0.1606934917411422</v>
+        <v>0.4651265392108428</v>
       </c>
       <c r="E7">
-        <v>0.1583683774464077</v>
+        <v>0.2055286146141597</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.292447051718824</v>
+        <v>0.0008248969618966412</v>
       </c>
       <c r="H7">
-        <v>4.710782025564015</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1201508772229616</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -653,39 +689,45 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7631921496713829</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>7.342178475740923</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.467164225850638</v>
+        <v>3.281122297186016</v>
       </c>
       <c r="C8">
-        <v>0.622903526748928</v>
+        <v>0.8571630559098651</v>
       </c>
       <c r="D8">
-        <v>0.1983759781932264</v>
+        <v>0.5375894142262609</v>
       </c>
       <c r="E8">
-        <v>0.1930845646518904</v>
+        <v>0.2398105795866101</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.782468407674997</v>
+        <v>0.0008049266070784302</v>
       </c>
       <c r="H8">
-        <v>5.678117130140151</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1419178338346754</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -694,39 +736,45 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9475044266121699</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>8.710999455392084</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.518393580228064</v>
+        <v>4.594321574930461</v>
       </c>
       <c r="C9">
-        <v>0.8998481600979744</v>
+        <v>1.225685474392776</v>
       </c>
       <c r="D9">
-        <v>0.27820903232913</v>
+        <v>0.6968673090948698</v>
       </c>
       <c r="E9">
-        <v>0.2665200354537092</v>
+        <v>0.3150357611998942</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.818275972366251</v>
+        <v>0.0007660359872664857</v>
       </c>
       <c r="H9">
-        <v>7.724332206629185</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1895895959789584</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -735,39 +783,45 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.341791614221123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>11.63943530525373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.383946072541221</v>
+        <v>5.692750681186965</v>
       </c>
       <c r="C10">
-        <v>1.131585474046858</v>
+        <v>1.539412692876056</v>
       </c>
       <c r="D10">
-        <v>0.3427939029409544</v>
+        <v>0.8304398030457207</v>
       </c>
       <c r="E10">
-        <v>0.3258026195364749</v>
+        <v>0.3780753864401092</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.655132883735547</v>
+        <v>0.0007368115318034926</v>
       </c>
       <c r="H10">
-        <v>9.378501691523695</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2295115155167764</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -776,39 +830,45 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.664366761101149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>14.03955497869276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.809314680295131</v>
+        <v>6.237962443464994</v>
       </c>
       <c r="C11">
-        <v>1.246788493804928</v>
+        <v>1.696982159054471</v>
       </c>
       <c r="D11">
-        <v>0.3741726200873643</v>
+        <v>0.896730121574052</v>
       </c>
       <c r="E11">
-        <v>0.3545586690677851</v>
+        <v>0.4093627419751726</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>5.061582081129643</v>
+        <v>0.0007231165805744885</v>
       </c>
       <c r="H11">
-        <v>10.18213491823997</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2493289182180405</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -817,39 +877,45 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.82223847477195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>15.21694494051917</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.976250649248584</v>
+        <v>6.452927005942001</v>
       </c>
       <c r="C12">
-        <v>1.292244979816587</v>
+        <v>1.759447437632105</v>
       </c>
       <c r="D12">
-        <v>0.386423350295459</v>
+        <v>0.9228555303850499</v>
       </c>
       <c r="E12">
-        <v>0.3657765220607274</v>
+        <v>0.4216948571602828</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5.220257260647656</v>
+        <v>0.0007178425727629723</v>
       </c>
       <c r="H12">
-        <v>10.49590203398424</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2571417460160319</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -858,39 +924,45 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.884078946783418</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>15.67880820746461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.940012186630895</v>
+        <v>6.406213859881916</v>
       </c>
       <c r="C13">
-        <v>1.282365418101364</v>
+        <v>1.745856969331157</v>
       </c>
       <c r="D13">
-        <v>0.3837670056402942</v>
+        <v>0.9171790103415276</v>
       </c>
       <c r="E13">
-        <v>0.3633445773569122</v>
+        <v>0.4190152432765544</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5.185851655714146</v>
+        <v>0.000718982935124161</v>
       </c>
       <c r="H13">
-        <v>10.42786626518068</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.255444020711181</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -899,39 +971,45 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.870660168106212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>15.57855313119677</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.822922245646112</v>
+        <v>6.255463669823257</v>
       </c>
       <c r="C14">
-        <v>1.250488603342433</v>
+        <v>1.702060543625237</v>
       </c>
       <c r="D14">
-        <v>0.3751725643571859</v>
+        <v>0.8988574003478789</v>
       </c>
       <c r="E14">
-        <v>0.3554744993906951</v>
+        <v>0.4103668521803172</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>5.074533762959732</v>
+        <v>0.0007226846594021707</v>
       </c>
       <c r="H14">
-        <v>10.20774512635984</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2499650165028697</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -940,39 +1018,45 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.827281766523853</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>15.25459618911214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.752009880983508</v>
+        <v>6.164301671300791</v>
       </c>
       <c r="C15">
-        <v>1.231216538672527</v>
+        <v>1.675621743293334</v>
       </c>
       <c r="D15">
-        <v>0.369958990495121</v>
+        <v>0.8877761167119615</v>
       </c>
       <c r="E15">
-        <v>0.3506991122093481</v>
+        <v>0.4051363778840269</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>5.007005173605648</v>
+        <v>0.000724939535046179</v>
       </c>
       <c r="H15">
-        <v>10.07421778254394</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2466516138360646</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -981,39 +1065,45 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.800995162355576</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>15.05837905478239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.356887001217274</v>
+        <v>5.658189231534209</v>
       </c>
       <c r="C16">
-        <v>1.124286992965409</v>
+        <v>1.529465684615502</v>
       </c>
       <c r="D16">
-        <v>0.3407898471997157</v>
+        <v>0.8262366626663891</v>
       </c>
       <c r="E16">
-        <v>0.3239649822429485</v>
+        <v>0.3760917439843539</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.62917245244401</v>
+        <v>0.0007376960830584488</v>
       </c>
       <c r="H16">
-        <v>9.327177146393922</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2282552345264293</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1022,39 +1112,45 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.654309564506065</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>13.96462236095033</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.123409551258362</v>
+        <v>5.360573305827813</v>
       </c>
       <c r="C17">
-        <v>1.061459124579699</v>
+        <v>1.444013850286694</v>
       </c>
       <c r="D17">
-        <v>0.3234581314011962</v>
+        <v>0.7900406393837045</v>
       </c>
       <c r="E17">
-        <v>0.3080672849190123</v>
+        <v>0.3590095802265765</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.404644388850897</v>
+        <v>0.0007454004160161997</v>
       </c>
       <c r="H17">
-        <v>8.88330311766245</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2174372478117022</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1063,39 +1159,45 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.567459335375105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>13.31784538520125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.991999231873535</v>
+        <v>5.193531434498368</v>
       </c>
       <c r="C18">
-        <v>1.026211614243209</v>
+        <v>1.396212531384379</v>
       </c>
       <c r="D18">
-        <v>0.3136715676206876</v>
+        <v>0.7697248938111443</v>
       </c>
       <c r="E18">
-        <v>0.2990864114514693</v>
+        <v>0.3494219219943702</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.277848499141953</v>
+        <v>0.0007497963106749255</v>
       </c>
       <c r="H18">
-        <v>8.632658250268605</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2113657139571785</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1104,39 +1206,45 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.518519296293078</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>12.95361341737797</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.947966600372638</v>
+        <v>5.13763488967038</v>
       </c>
       <c r="C19">
-        <v>1.014419228139673</v>
+        <v>1.380242625063545</v>
       </c>
       <c r="D19">
-        <v>0.3103871885738982</v>
+        <v>0.7629269397948804</v>
       </c>
       <c r="E19">
-        <v>0.2960717832184301</v>
+        <v>0.3462137230131432</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4.235293103421895</v>
+        <v>0.0007512793771514951</v>
       </c>
       <c r="H19">
-        <v>8.548539988059389</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2093340867182434</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1145,39 +1253,45 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.502111311593353</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>12.83153150520144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.147957296131835</v>
+        <v>5.391814456956752</v>
       </c>
       <c r="C20">
-        <v>1.068052534027004</v>
+        <v>1.452966691381164</v>
       </c>
       <c r="D20">
-        <v>0.3252837534450492</v>
+        <v>0.7938402590221756</v>
       </c>
       <c r="E20">
-        <v>0.3097422911064811</v>
+        <v>0.3608027397515343</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.42829619313261</v>
+        <v>0.000744584134461299</v>
       </c>
       <c r="H20">
-        <v>8.930058702536201</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2185728075567255</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1186,39 +1300,45 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.576596858052199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>13.38586779525451</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.857142952371248</v>
+        <v>6.299492923185824</v>
       </c>
       <c r="C21">
-        <v>1.25979783028825</v>
+        <v>1.714842281651954</v>
       </c>
       <c r="D21">
-        <v>0.3776861998634615</v>
+        <v>0.9042089493104299</v>
       </c>
       <c r="E21">
-        <v>0.357776540891976</v>
+        <v>0.4128929006966331</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>5.107091289217919</v>
+        <v>0.0007216000554028194</v>
       </c>
       <c r="H21">
-        <v>10.27212379246618</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2515652851760422</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1227,39 +1347,45 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.839962864388312</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>15.34927998011898</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.355717530960703</v>
+        <v>6.943738594690842</v>
       </c>
       <c r="C22">
-        <v>1.396096950132147</v>
+        <v>1.902793250979187</v>
       </c>
       <c r="D22">
-        <v>0.4141379344495988</v>
+        <v>0.9824705296753962</v>
       </c>
       <c r="E22">
-        <v>0.3911349154870081</v>
+        <v>0.4498400708789134</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.579224249240383</v>
+        <v>0.0007060431020156641</v>
       </c>
       <c r="H22">
-        <v>11.20579276009261</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2749774195497281</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1268,39 +1394,45 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.024407656932709</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>16.72853529865256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.085861468349549</v>
+        <v>6.594386787366091</v>
       </c>
       <c r="C23">
-        <v>1.322168048154538</v>
+        <v>1.800658532510795</v>
       </c>
       <c r="D23">
-        <v>0.3944477662862056</v>
+        <v>0.9400429501024519</v>
       </c>
       <c r="E23">
-        <v>0.3731215594082258</v>
+        <v>0.429808573314304</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>5.324191169606138</v>
+        <v>0.0007144080980776918</v>
       </c>
       <c r="H23">
-        <v>10.7014323121582</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2622827093737641</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1309,39 +1441,45 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.924648137861283</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>15.98203597058125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.136850573309232</v>
+        <v>5.377677819931193</v>
       </c>
       <c r="C24">
-        <v>1.065068964306249</v>
+        <v>1.448915028012664</v>
       </c>
       <c r="D24">
-        <v>0.3244578420744091</v>
+        <v>0.7921209288985551</v>
       </c>
       <c r="E24">
-        <v>0.3089845308866117</v>
+        <v>0.3599913339460699</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.417596160223042</v>
+        <v>0.0007449532773896476</v>
       </c>
       <c r="H24">
-        <v>8.90890649749025</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2180589653614931</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1350,39 +1488,45 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.572462728844442</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>13.35509142609652</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.22078169354171</v>
+        <v>4.220085118284089</v>
       </c>
       <c r="C25">
-        <v>0.8209635354055251</v>
+        <v>1.119933370594765</v>
       </c>
       <c r="D25">
-        <v>0.2557680112925738</v>
+        <v>0.6513988130907649</v>
       </c>
       <c r="E25">
-        <v>0.2458937700975099</v>
+        <v>0.2935717766677257</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.527324124552592</v>
+        <v>0.0007766006791023091</v>
       </c>
       <c r="H25">
-        <v>7.14940438633576</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1759943722826876</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1391,7 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.230454028907168</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>10.81218615108389</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_45/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.451566431429569</v>
+        <v>0.8513735110218477</v>
       </c>
       <c r="C2">
-        <v>0.9045872080660899</v>
+        <v>0.1297693410362086</v>
       </c>
       <c r="D2">
-        <v>0.5582067614339508</v>
+        <v>0.1893786480754613</v>
       </c>
       <c r="E2">
-        <v>0.2495553855026884</v>
+        <v>0.03743227736428167</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007995581278412711</v>
+        <v>1.817918732161985</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.134344842834878</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.297510410957386</v>
       </c>
       <c r="J2">
-        <v>0.1480985197770934</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8725428181604684</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1730882119609305</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1983934722233762</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>9.095459194660123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.966257708633805</v>
+        <v>0.7392379228617756</v>
       </c>
       <c r="C3">
-        <v>0.7698818401526921</v>
+        <v>0.1147073750163798</v>
       </c>
       <c r="D3">
-        <v>0.4995738904619031</v>
+        <v>0.1640054967533615</v>
       </c>
       <c r="E3">
-        <v>0.2218328574912576</v>
+        <v>0.03671118309621235</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008151675177053588</v>
+        <v>1.70894648651705</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.090533538905589</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.244406126553322</v>
       </c>
       <c r="J3">
-        <v>0.1305084115228681</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7543176206508519</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.157809561774414</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1742706991509806</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>7.996642759990664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.681638080316191</v>
+        <v>0.6711751702697484</v>
       </c>
       <c r="C4">
-        <v>0.6913547534760767</v>
+        <v>0.1055169475628475</v>
       </c>
       <c r="D4">
-        <v>0.4653112189056685</v>
+        <v>0.1486227699437705</v>
       </c>
       <c r="E4">
-        <v>0.2056160680373367</v>
+        <v>0.03629993737975923</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008248434987749863</v>
+        <v>1.644431186342842</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.064956124046716</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.213322571192577</v>
       </c>
       <c r="J4">
-        <v>0.1202064649220205</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6824575913681201</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1486494950092734</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1596799911184164</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>7.345707864361913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.568498622223103</v>
+        <v>0.6436140543099782</v>
       </c>
       <c r="C5">
-        <v>0.6602388041233382</v>
+        <v>0.1017823820999411</v>
       </c>
       <c r="D5">
-        <v>0.4517247135836726</v>
+        <v>0.1423974050253776</v>
       </c>
       <c r="E5">
-        <v>0.1991808895025073</v>
+        <v>0.036139990457837</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008288179074081941</v>
+        <v>1.618699924340348</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.05484613536261</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.201015076944792</v>
       </c>
       <c r="J5">
-        <v>0.1161150559202468</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.653332113277699</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1449681740789828</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1537842409738985</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>7.085404217771696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.549870182784957</v>
+        <v>0.6390474674036</v>
       </c>
       <c r="C6">
-        <v>0.6551210497803481</v>
+        <v>0.10116279223476</v>
       </c>
       <c r="D6">
-        <v>0.4494897636606652</v>
+        <v>0.1413661247399176</v>
       </c>
       <c r="E6">
-        <v>0.1981220303280082</v>
+        <v>0.03611388478484123</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008294799693117304</v>
+        <v>1.614459845546605</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.053185734176395</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.198992466482565</v>
       </c>
       <c r="J6">
-        <v>0.1154416343933278</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6485046779405366</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1443598874250753</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1528081287238692</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>7.042453604615361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.680101344378613</v>
+        <v>0.6708027926170246</v>
       </c>
       <c r="C7">
-        <v>0.690931733581408</v>
+        <v>0.1054665439098699</v>
       </c>
       <c r="D7">
-        <v>0.4651265392108428</v>
+        <v>0.1485386453949502</v>
       </c>
       <c r="E7">
-        <v>0.2055286146141597</v>
+        <v>0.03629774971259181</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008248969618966412</v>
+        <v>1.644081955743104</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.064818534864429</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.21315516329863</v>
       </c>
       <c r="J7">
-        <v>0.1201508772229616</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6820641876942517</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1485996442354818</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1596002831192251</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>7.342178475740923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.281122297186016</v>
+        <v>0.812530827991651</v>
       </c>
       <c r="C8">
-        <v>0.8571630559098651</v>
+        <v>0.1245615697046674</v>
       </c>
       <c r="D8">
-        <v>0.5375894142262609</v>
+        <v>0.180585350854841</v>
       </c>
       <c r="E8">
-        <v>0.2398105795866101</v>
+        <v>0.03717692769162362</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008049266070784302</v>
+        <v>1.779821577494005</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.118951907150688</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.278869338885201</v>
       </c>
       <c r="J8">
-        <v>0.1419178338346754</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8316110872090974</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.167771685955806</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1900267317875084</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>8.710999455392084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.594321574930461</v>
+        <v>1.097868094635231</v>
       </c>
       <c r="C9">
-        <v>1.225685474392776</v>
+        <v>0.162656378786167</v>
       </c>
       <c r="D9">
-        <v>0.6968673090948698</v>
+        <v>0.2452903764573477</v>
       </c>
       <c r="E9">
-        <v>0.3150357611998942</v>
+        <v>0.03916484144959398</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007660359872664857</v>
+        <v>2.067090376905384</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.236562828454396</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.420966754719473</v>
       </c>
       <c r="J9">
-        <v>0.1895895959789584</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.131932180175113</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2073232548729464</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2517111361577697</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.63943530525373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.692750681186965</v>
+        <v>1.313773655854845</v>
       </c>
       <c r="C10">
-        <v>1.539412692876056</v>
+        <v>0.1913342058028888</v>
       </c>
       <c r="D10">
-        <v>0.8304398030457207</v>
+        <v>0.2944227347415023</v>
       </c>
       <c r="E10">
-        <v>0.3780753864401092</v>
+        <v>0.04080710377654029</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007368115318034926</v>
+        <v>2.294165038852555</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.331409358817666</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.535174571268797</v>
       </c>
       <c r="J10">
-        <v>0.2295115155167764</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.358807086267461</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2378785587893759</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2986665119579328</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.03955497869276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.237962443464994</v>
+        <v>1.413787176974523</v>
       </c>
       <c r="C11">
-        <v>1.696982159054471</v>
+        <v>0.204603261835743</v>
       </c>
       <c r="D11">
-        <v>0.896730121574052</v>
+        <v>0.3172328752429934</v>
       </c>
       <c r="E11">
-        <v>0.4093627419751726</v>
+        <v>0.04159876810590113</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007231165805744885</v>
+        <v>2.401724203909907</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.376747753572886</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1.589688897971286</v>
       </c>
       <c r="J11">
-        <v>0.2493289182180405</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.46384590128099</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2521786735303948</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3204826288908436</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.21694494051917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.452927005942001</v>
+        <v>1.4519575730518</v>
       </c>
       <c r="C12">
-        <v>1.759447437632105</v>
+        <v>0.2096667987134708</v>
       </c>
       <c r="D12">
-        <v>0.9228555303850499</v>
+        <v>0.3259468570605151</v>
       </c>
       <c r="E12">
-        <v>0.4216948571602828</v>
+        <v>0.04190542616124482</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007178425727629723</v>
+        <v>2.44313856068257</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.394264442504266</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.610739673018429</v>
       </c>
       <c r="J12">
-        <v>0.2571417460160319</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.503928420887888</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2576581492861862</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.328818495010033</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.67880820746461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.406213859881916</v>
+        <v>1.443723004234954</v>
       </c>
       <c r="C13">
-        <v>1.745856969331157</v>
+        <v>0.2085744339082538</v>
       </c>
       <c r="D13">
-        <v>0.9171790103415276</v>
+        <v>0.3240665801787941</v>
       </c>
       <c r="E13">
-        <v>0.4190152432765544</v>
+        <v>0.04183906846848728</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.000718982935124161</v>
+        <v>2.434187607631884</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.390475875558195</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.60618722940076</v>
       </c>
       <c r="J13">
-        <v>0.255444020711181</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.495281565031235</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2564750704748633</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.3270197474264762</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.57855313119677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.255463669823257</v>
+        <v>1.416921280131703</v>
       </c>
       <c r="C14">
-        <v>1.702060543625237</v>
+        <v>0.2050190228362538</v>
       </c>
       <c r="D14">
-        <v>0.8988574003478789</v>
+        <v>0.3179481892876623</v>
       </c>
       <c r="E14">
-        <v>0.4103668521803172</v>
+        <v>0.04162385654462319</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007226846594021707</v>
+        <v>2.405117246512503</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.378181688103524</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.591412355576466</v>
       </c>
       <c r="J14">
-        <v>0.2499650165028697</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.467137107527577</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2526281429925774</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.3211668762612945</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.25459618911214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.164301671300791</v>
+        <v>1.400544409141474</v>
       </c>
       <c r="C15">
-        <v>1.675621743293334</v>
+        <v>0.2028464992706489</v>
       </c>
       <c r="D15">
-        <v>0.8877761167119615</v>
+        <v>0.3142107503934426</v>
       </c>
       <c r="E15">
-        <v>0.4051363778840269</v>
+        <v>0.04149294230169609</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.000724939535046179</v>
+        <v>2.387402122680669</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.370697493185304</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.582416598469507</v>
       </c>
       <c r="J15">
-        <v>0.2466516138360646</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.449939094544732</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2502803782656997</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.3175918180266777</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.05837905478239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.658189231534209</v>
+        <v>1.307276950555377</v>
       </c>
       <c r="C16">
-        <v>1.529465684615502</v>
+        <v>0.1904720948103318</v>
       </c>
       <c r="D16">
-        <v>0.8262366626663891</v>
+        <v>0.2929421359890938</v>
       </c>
       <c r="E16">
-        <v>0.3760917439843539</v>
+        <v>0.04075630232823713</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007376960830584488</v>
+        <v>2.287227484883545</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.328493232872006</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.531666722392742</v>
       </c>
       <c r="J16">
-        <v>0.2282552345264293</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.351983014752506</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2369526327819358</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.2972507028676858</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.96462236095033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.360573305827813</v>
+        <v>1.250547270101038</v>
       </c>
       <c r="C17">
-        <v>1.444013850286694</v>
+        <v>0.1829425722481801</v>
       </c>
       <c r="D17">
-        <v>0.7900406393837045</v>
+        <v>0.2800191972997936</v>
       </c>
       <c r="E17">
-        <v>0.3590095802265765</v>
+        <v>0.04031613304897341</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007454004160161997</v>
+        <v>2.226913691566438</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.303186126176996</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.501215876124121</v>
       </c>
       <c r="J17">
-        <v>0.2174372478117022</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.292388817773087</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2288836517917616</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2848950060771926</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.31784538520125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.193531434498368</v>
+        <v>1.218084453353384</v>
       </c>
       <c r="C18">
-        <v>1.396212531384379</v>
+        <v>0.1786323738820812</v>
       </c>
       <c r="D18">
-        <v>0.7697248938111443</v>
+        <v>0.2726288595376758</v>
       </c>
       <c r="E18">
-        <v>0.3494219219943702</v>
+        <v>0.04006712661645473</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007497963106749255</v>
+        <v>2.192619285320148</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.288834351817172</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.483939818283133</v>
       </c>
       <c r="J18">
-        <v>0.2113657139571785</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.258281458460601</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2242798305067311</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2778306577772156</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.95361341737797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.13763488967038</v>
+        <v>1.207120584249822</v>
       </c>
       <c r="C19">
-        <v>1.380242625063545</v>
+        <v>0.177176356572474</v>
       </c>
       <c r="D19">
-        <v>0.7629269397948804</v>
+        <v>0.27013363858687</v>
       </c>
       <c r="E19">
-        <v>0.3462137230131432</v>
+        <v>0.03998351969159408</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007512793771514951</v>
+        <v>2.181073825976796</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.284009211260212</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.478130264303616</v>
       </c>
       <c r="J19">
-        <v>0.2093340867182434</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.246761182531174</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2227272562155207</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2754457983510434</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.83153150520144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.391814456956752</v>
+        <v>1.256568728424583</v>
       </c>
       <c r="C20">
-        <v>1.452966691381164</v>
+        <v>0.1837419259787936</v>
       </c>
       <c r="D20">
-        <v>0.7938402590221756</v>
+        <v>0.2813903869771934</v>
       </c>
       <c r="E20">
-        <v>0.3608027397515343</v>
+        <v>0.04036255531797472</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.000744584134461299</v>
+        <v>2.233292668086591</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.305858748991938</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.504432468627954</v>
       </c>
       <c r="J20">
-        <v>0.2185728075567255</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.298714864818777</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2297387070520358</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2862058482943155</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.38586779525451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.299492923185824</v>
+        <v>1.424785193736795</v>
       </c>
       <c r="C21">
-        <v>1.714842281651954</v>
+        <v>0.2060622223458353</v>
       </c>
       <c r="D21">
-        <v>0.9042089493104299</v>
+        <v>0.3197431529002159</v>
       </c>
       <c r="E21">
-        <v>0.4128929006966331</v>
+        <v>0.04168687913232816</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007216000554028194</v>
+        <v>2.413636750074488</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.381783066660972</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1.595740707051718</v>
       </c>
       <c r="J21">
-        <v>0.2515652851760422</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.475395131248234</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2537562758454754</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3228839062575304</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.34927998011898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.943738594690842</v>
+        <v>1.536479028527594</v>
       </c>
       <c r="C22">
-        <v>1.902793250979187</v>
+        <v>0.2208798124271425</v>
       </c>
       <c r="D22">
-        <v>0.9824705296753962</v>
+        <v>0.345258941638761</v>
       </c>
       <c r="E22">
-        <v>0.4498400708789134</v>
+        <v>0.04259270000712156</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007060431020156641</v>
+        <v>2.535527264144719</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.433450113946463</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1.657811425969683</v>
       </c>
       <c r="J22">
-        <v>0.2749774195497281</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.592676140841718</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2698317310664891</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3472946472822187</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.72853529865256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.594386787366091</v>
+        <v>1.476691473536761</v>
       </c>
       <c r="C23">
-        <v>1.800658532510795</v>
+        <v>0.2129479368819034</v>
       </c>
       <c r="D23">
-        <v>0.9400429501024519</v>
+        <v>0.3315958836864894</v>
       </c>
       <c r="E23">
-        <v>0.429808573314304</v>
+        <v>0.0421053961845228</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007144080980776918</v>
+        <v>2.470078331904205</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.405675538276881</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.624449980253019</v>
       </c>
       <c r="J23">
-        <v>0.2622827093737641</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.529900047767683</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2612149149278338</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3342227504398636</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.98203597058125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.377677819931193</v>
+        <v>1.253845957098122</v>
       </c>
       <c r="C24">
-        <v>1.448915028012664</v>
+        <v>0.1833804806451553</v>
       </c>
       <c r="D24">
-        <v>0.7921209288985551</v>
+        <v>0.2807703506839943</v>
       </c>
       <c r="E24">
-        <v>0.3599913339460699</v>
+        <v>0.04034155522105642</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007449532773896476</v>
+        <v>2.230407552002418</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.30464984311962</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.502977531993636</v>
       </c>
       <c r="J24">
-        <v>0.2180589653614931</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.295854382050265</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2293520276085559</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2856130953917244</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.35509142609652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.220085118284089</v>
+        <v>1.019711754463373</v>
       </c>
       <c r="C25">
-        <v>1.119933370594765</v>
+        <v>0.152252495617418</v>
       </c>
       <c r="D25">
-        <v>0.6513988130907649</v>
+        <v>0.2275415819066069</v>
       </c>
       <c r="E25">
-        <v>0.2935717766677257</v>
+        <v>0.03859675312493671</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007766006791023091</v>
+        <v>1.986808783573622</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.203376896176849</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.38093802421605</v>
       </c>
       <c r="J25">
-        <v>0.1759943722826876</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.049742795153776</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1963842232193542</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.234767992596403</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.81218615108389</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_45/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8513735110218477</v>
+        <v>0.596238626253438</v>
       </c>
       <c r="C2">
-        <v>0.1297693410362086</v>
+        <v>0.05275607247739345</v>
       </c>
       <c r="D2">
-        <v>0.1893786480754613</v>
+        <v>0.07707292167084745</v>
       </c>
       <c r="E2">
-        <v>0.03743227736428167</v>
+        <v>0.08133836603712652</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.817918732161985</v>
+        <v>2.118018728967002</v>
       </c>
       <c r="H2">
-        <v>1.134344842834878</v>
+        <v>1.754318280332768</v>
       </c>
       <c r="I2">
-        <v>1.297510410957386</v>
+        <v>1.810319534582341</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8725428181604684</v>
+        <v>0.4212422880382007</v>
       </c>
       <c r="L2">
-        <v>0.1730882119609305</v>
+        <v>0.2267735543746383</v>
       </c>
       <c r="M2">
-        <v>0.1983934722233762</v>
+        <v>0.1815961741146062</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7392379228617756</v>
+        <v>0.5709050036153656</v>
       </c>
       <c r="C3">
-        <v>0.1147073750163798</v>
+        <v>0.04803073841155481</v>
       </c>
       <c r="D3">
-        <v>0.1640054967533615</v>
+        <v>0.07012574728479137</v>
       </c>
       <c r="E3">
-        <v>0.03671118309621235</v>
+        <v>0.08141792776114087</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.70894648651705</v>
+        <v>2.094241755356848</v>
       </c>
       <c r="H3">
-        <v>1.090533538905589</v>
+        <v>1.747844621939265</v>
       </c>
       <c r="I3">
-        <v>1.244406126553322</v>
+        <v>1.800593244768102</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7543176206508519</v>
+        <v>0.3920167350184727</v>
       </c>
       <c r="L3">
-        <v>0.157809561774414</v>
+        <v>0.2239746217362182</v>
       </c>
       <c r="M3">
-        <v>0.1742706991509806</v>
+        <v>0.1764762417096897</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6711751702697484</v>
+        <v>0.555746512494494</v>
       </c>
       <c r="C4">
-        <v>0.1055169475628475</v>
+        <v>0.04510287436224303</v>
       </c>
       <c r="D4">
-        <v>0.1486227699437705</v>
+        <v>0.06589753627913808</v>
       </c>
       <c r="E4">
-        <v>0.03629993737975923</v>
+        <v>0.08148659240934286</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.644431186342842</v>
+        <v>2.080463671151008</v>
       </c>
       <c r="H4">
-        <v>1.064956124046716</v>
+        <v>1.744431898839963</v>
       </c>
       <c r="I4">
-        <v>1.213322571192577</v>
+        <v>1.795207060022165</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6824575913681201</v>
+        <v>0.3743417770515407</v>
       </c>
       <c r="L4">
-        <v>0.1486494950092734</v>
+        <v>0.2223646465878204</v>
       </c>
       <c r="M4">
-        <v>0.1596799911184164</v>
+        <v>0.1734433447835784</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6436140543099782</v>
+        <v>0.5496691913925247</v>
       </c>
       <c r="C5">
-        <v>0.1017823820999411</v>
+        <v>0.04390301604622948</v>
       </c>
       <c r="D5">
-        <v>0.1423974050253776</v>
+        <v>0.06418385353782696</v>
       </c>
       <c r="E5">
-        <v>0.036139990457837</v>
+        <v>0.08151956608147515</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.618699924340348</v>
+        <v>2.075055173692476</v>
       </c>
       <c r="H5">
-        <v>1.05484613536261</v>
+        <v>1.743182527198641</v>
       </c>
       <c r="I5">
-        <v>1.201015076944792</v>
+        <v>1.793159356247955</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.653332113277699</v>
+        <v>0.3672069311591883</v>
       </c>
       <c r="L5">
-        <v>0.1449681740789828</v>
+        <v>0.2217358993454468</v>
       </c>
       <c r="M5">
-        <v>0.1537842409738985</v>
+        <v>0.1722353099306879</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6390474674036</v>
+        <v>0.5486660956487128</v>
       </c>
       <c r="C6">
-        <v>0.10116279223476</v>
+        <v>0.04370337200859353</v>
       </c>
       <c r="D6">
-        <v>0.1413661247399176</v>
+        <v>0.0638998608739314</v>
       </c>
       <c r="E6">
-        <v>0.03611388478484123</v>
+        <v>0.08152534315119375</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.614459845546605</v>
+        <v>2.074169541624542</v>
       </c>
       <c r="H6">
-        <v>1.053185734176395</v>
+        <v>1.742983606342008</v>
       </c>
       <c r="I6">
-        <v>1.198992466482565</v>
+        <v>1.792828225053483</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6485046779405366</v>
+        <v>0.3660262942128298</v>
       </c>
       <c r="L6">
-        <v>0.1443598874250753</v>
+        <v>0.221633147866477</v>
       </c>
       <c r="M6">
-        <v>0.1528081287238692</v>
+        <v>0.1720364027651016</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6708027926170246</v>
+        <v>0.5556641469156318</v>
       </c>
       <c r="C7">
-        <v>0.1054665439098699</v>
+        <v>0.04508671999292346</v>
       </c>
       <c r="D7">
-        <v>0.1485386453949502</v>
+        <v>0.06587438717495786</v>
       </c>
       <c r="E7">
-        <v>0.03629774971259181</v>
+        <v>0.08148701687680671</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.644081955743104</v>
+        <v>2.080389895813084</v>
       </c>
       <c r="H7">
-        <v>1.064818534864429</v>
+        <v>1.744414477117999</v>
       </c>
       <c r="I7">
-        <v>1.21315516329863</v>
+        <v>1.795178848055109</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6820641876942517</v>
+        <v>0.374245279278</v>
       </c>
       <c r="L7">
-        <v>0.1485996442354818</v>
+        <v>0.2223560563850313</v>
       </c>
       <c r="M7">
-        <v>0.1596002831192251</v>
+        <v>0.1734269397981336</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.812530827991651</v>
+        <v>0.587421414807352</v>
       </c>
       <c r="C8">
-        <v>0.1245615697046674</v>
+        <v>0.05113223256381616</v>
       </c>
       <c r="D8">
-        <v>0.180585350854841</v>
+        <v>0.07466974344303878</v>
       </c>
       <c r="E8">
-        <v>0.03717692769162362</v>
+        <v>0.08136169255896419</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.779821577494005</v>
+        <v>2.109649833617965</v>
       </c>
       <c r="H8">
-        <v>1.118951907150688</v>
+        <v>1.751969480918007</v>
       </c>
       <c r="I8">
-        <v>1.278869338885201</v>
+        <v>1.806844265710957</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8316110872090974</v>
+        <v>0.4111093625356546</v>
       </c>
       <c r="L8">
-        <v>0.167771685955806</v>
+        <v>0.2257859612031297</v>
       </c>
       <c r="M8">
-        <v>0.1900267317875084</v>
+        <v>0.1798078562333423</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.097868094635231</v>
+        <v>0.6528387605580406</v>
       </c>
       <c r="C9">
-        <v>0.162656378786167</v>
+        <v>0.06278087174425195</v>
       </c>
       <c r="D9">
-        <v>0.2452903764573477</v>
+        <v>0.09221731823673451</v>
       </c>
       <c r="E9">
-        <v>0.03916484144959398</v>
+        <v>0.08127274076810487</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.067090376905384</v>
+        <v>2.173560903178782</v>
       </c>
       <c r="H9">
-        <v>1.236562828454396</v>
+        <v>1.771247838970964</v>
       </c>
       <c r="I9">
-        <v>1.420966754719473</v>
+        <v>1.834374982626116</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.131932180175113</v>
+        <v>0.485542147665825</v>
       </c>
       <c r="L9">
-        <v>0.2073232548729464</v>
+        <v>0.2333729744536441</v>
       </c>
       <c r="M9">
-        <v>0.2517111361577697</v>
+        <v>0.1931987115020384</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.313773655854845</v>
+        <v>0.7028166573529404</v>
       </c>
       <c r="C10">
-        <v>0.1913342058028888</v>
+        <v>0.07121885461336319</v>
       </c>
       <c r="D10">
-        <v>0.2944227347415023</v>
+        <v>0.1052982582023105</v>
       </c>
       <c r="E10">
-        <v>0.04080710377654029</v>
+        <v>0.08130249949973134</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.294165038852555</v>
+        <v>2.224530028537288</v>
       </c>
       <c r="H10">
-        <v>1.331409358817666</v>
+        <v>1.788139543213561</v>
       </c>
       <c r="I10">
-        <v>1.535174571268797</v>
+        <v>1.857452807817566</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.358807086267461</v>
+        <v>0.5415445712513076</v>
       </c>
       <c r="L10">
-        <v>0.2378785587893759</v>
+        <v>0.2394722177147202</v>
       </c>
       <c r="M10">
-        <v>0.2986665119579328</v>
+        <v>0.2035722857155946</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.413787176974523</v>
+        <v>0.7259695090946536</v>
       </c>
       <c r="C11">
-        <v>0.204603261835743</v>
+        <v>0.07503265881992149</v>
       </c>
       <c r="D11">
-        <v>0.3172328752429934</v>
+        <v>0.1112914503664229</v>
       </c>
       <c r="E11">
-        <v>0.04159876810590113</v>
+        <v>0.08133659242415447</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.401724203909907</v>
+        <v>2.248595925655394</v>
       </c>
       <c r="H11">
-        <v>1.376747753572886</v>
+        <v>1.796418121398005</v>
       </c>
       <c r="I11">
-        <v>1.589688897971286</v>
+        <v>1.868573690216465</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.46384590128099</v>
+        <v>0.5673101598346193</v>
       </c>
       <c r="L11">
-        <v>0.2521786735303948</v>
+        <v>0.2423610435771479</v>
       </c>
       <c r="M11">
-        <v>0.3204826288908436</v>
+        <v>0.2084078620727325</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.4519575730518</v>
+        <v>0.7347968720181086</v>
       </c>
       <c r="C12">
-        <v>0.2096667987134708</v>
+        <v>0.07647338489518063</v>
       </c>
       <c r="D12">
-        <v>0.3259468570605151</v>
+        <v>0.1135671224978978</v>
       </c>
       <c r="E12">
-        <v>0.04190542616124482</v>
+        <v>0.08135244942837261</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.44313856068257</v>
+        <v>2.257836004929629</v>
       </c>
       <c r="H12">
-        <v>1.394264442504266</v>
+        <v>1.799638568147742</v>
       </c>
       <c r="I12">
-        <v>1.610739673018429</v>
+        <v>1.87287459428461</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.503928420887888</v>
+        <v>0.5771086791311859</v>
       </c>
       <c r="L12">
-        <v>0.2576581492861862</v>
+        <v>0.2434713860890412</v>
       </c>
       <c r="M12">
-        <v>0.328818495010033</v>
+        <v>0.2102557164773629</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.443723004234954</v>
+        <v>0.7328930810577106</v>
       </c>
       <c r="C13">
-        <v>0.2085744339082538</v>
+        <v>0.0761632523654896</v>
       </c>
       <c r="D13">
-        <v>0.3240665801787941</v>
+        <v>0.1130767400617714</v>
       </c>
       <c r="E13">
-        <v>0.04183906846848728</v>
+        <v>0.08134890342564383</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.434187607631884</v>
+        <v>2.255840341668772</v>
       </c>
       <c r="H13">
-        <v>1.390475875558195</v>
+        <v>1.798941182639197</v>
       </c>
       <c r="I13">
-        <v>1.60618722940076</v>
+        <v>1.871944327599678</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.495281565031235</v>
+        <v>0.5749965406161266</v>
       </c>
       <c r="L13">
-        <v>0.2564750704748633</v>
+        <v>0.2432315246106214</v>
       </c>
       <c r="M13">
-        <v>0.3270197474264762</v>
+        <v>0.2098570046494714</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.416921280131703</v>
+        <v>0.7266945424656512</v>
       </c>
       <c r="C14">
-        <v>0.2050190228362538</v>
+        <v>0.07515125754170526</v>
       </c>
       <c r="D14">
-        <v>0.3179481892876623</v>
+        <v>0.1114785471119433</v>
       </c>
       <c r="E14">
-        <v>0.04162385654462319</v>
+        <v>0.08133783798395378</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.405117246512503</v>
+        <v>2.249353568430536</v>
       </c>
       <c r="H14">
-        <v>1.378181688103524</v>
+        <v>1.796681355092545</v>
       </c>
       <c r="I14">
-        <v>1.591412355576466</v>
+        <v>1.86892573037575</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.467137107527577</v>
+        <v>0.5681154553049623</v>
       </c>
       <c r="L14">
-        <v>0.2526281429925774</v>
+        <v>0.2424520634308323</v>
       </c>
       <c r="M14">
-        <v>0.3211668762612945</v>
+        <v>0.2085595511570091</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.400544409141474</v>
+        <v>0.722905551594522</v>
       </c>
       <c r="C15">
-        <v>0.2028464992706489</v>
+        <v>0.07453093052106396</v>
       </c>
       <c r="D15">
-        <v>0.3142107503934426</v>
+        <v>0.1105004142363555</v>
       </c>
       <c r="E15">
-        <v>0.04149294230169609</v>
+        <v>0.08133144356667721</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.387402122680669</v>
+        <v>2.24539676159776</v>
       </c>
       <c r="H15">
-        <v>1.370697493185304</v>
+        <v>1.795308285260063</v>
       </c>
       <c r="I15">
-        <v>1.582416598469507</v>
+        <v>1.867088433581401</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.449939094544732</v>
+        <v>0.5639060153046387</v>
       </c>
       <c r="L15">
-        <v>0.2502803782656997</v>
+        <v>0.241976756960625</v>
       </c>
       <c r="M15">
-        <v>0.3175918180266777</v>
+        <v>0.2077670006044343</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.307276950555377</v>
+        <v>0.7013119530327003</v>
       </c>
       <c r="C16">
-        <v>0.1904720948103318</v>
+        <v>0.07096912293005175</v>
       </c>
       <c r="D16">
-        <v>0.2929421359890938</v>
+        <v>0.104907450929943</v>
       </c>
       <c r="E16">
-        <v>0.04075630232823713</v>
+        <v>0.08130068429708004</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.287227484883545</v>
+        <v>2.222974997642694</v>
       </c>
       <c r="H16">
-        <v>1.328493232872006</v>
+        <v>1.787610484610809</v>
       </c>
       <c r="I16">
-        <v>1.531666722392742</v>
+        <v>1.856738572590288</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.351983014752506</v>
+        <v>0.5398665589606821</v>
       </c>
       <c r="L16">
-        <v>0.2369526327819358</v>
+        <v>0.2392857232438672</v>
       </c>
       <c r="M16">
-        <v>0.2972507028676858</v>
+        <v>0.2032586121347322</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.250547270101038</v>
+        <v>0.6881718234071457</v>
       </c>
       <c r="C17">
-        <v>0.1829425722481801</v>
+        <v>0.06877779853878963</v>
       </c>
       <c r="D17">
-        <v>0.2800191972997936</v>
+        <v>0.1014872997693885</v>
       </c>
       <c r="E17">
-        <v>0.04031613304897341</v>
+        <v>0.08128707274737224</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.226913691566438</v>
+        <v>2.209445543389705</v>
       </c>
       <c r="H17">
-        <v>1.303186126176996</v>
+        <v>1.783040420728668</v>
       </c>
       <c r="I17">
-        <v>1.501215876124121</v>
+        <v>1.850548838748935</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.292388817773087</v>
+        <v>0.5251933391847103</v>
       </c>
       <c r="L17">
-        <v>0.2288836517917616</v>
+        <v>0.2376641073980892</v>
       </c>
       <c r="M17">
-        <v>0.2848950060771926</v>
+        <v>0.2005226946576428</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.218084453353384</v>
+        <v>0.6806532904949734</v>
       </c>
       <c r="C18">
-        <v>0.1786323738820812</v>
+        <v>0.06751507985462979</v>
       </c>
       <c r="D18">
-        <v>0.2726288595376758</v>
+        <v>0.09952412644696551</v>
       </c>
       <c r="E18">
-        <v>0.04006712661645473</v>
+        <v>0.081281179068867</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.192619285320148</v>
+        <v>2.201746548716187</v>
       </c>
       <c r="H18">
-        <v>1.288834351817172</v>
+        <v>1.780467791070009</v>
       </c>
       <c r="I18">
-        <v>1.483939818283133</v>
+        <v>1.847047267846108</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.258281458460601</v>
+        <v>0.5167809702622321</v>
       </c>
       <c r="L18">
-        <v>0.2242798305067311</v>
+        <v>0.2367421518515016</v>
       </c>
       <c r="M18">
-        <v>0.2778306577772156</v>
+        <v>0.1989600430909562</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.207120584249822</v>
+        <v>0.678114403541457</v>
       </c>
       <c r="C19">
-        <v>0.177176356572474</v>
+        <v>0.06708714324862797</v>
       </c>
       <c r="D19">
-        <v>0.27013363858687</v>
+        <v>0.09886011629717473</v>
       </c>
       <c r="E19">
-        <v>0.03998351969159408</v>
+        <v>0.08127951624276442</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.181073825976796</v>
+        <v>2.199154010446591</v>
       </c>
       <c r="H19">
-        <v>1.284009211260212</v>
+        <v>1.779606350988786</v>
       </c>
       <c r="I19">
-        <v>1.478130264303616</v>
+        <v>1.845871756855374</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.246761182531174</v>
+        <v>0.5139373726658221</v>
       </c>
       <c r="L19">
-        <v>0.2227272562155207</v>
+        <v>0.2364318414062581</v>
       </c>
       <c r="M19">
-        <v>0.2754457983510434</v>
+        <v>0.1984328424054453</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.256568728424583</v>
+        <v>0.6895665442506527</v>
       </c>
       <c r="C20">
-        <v>0.1837419259787936</v>
+        <v>0.06901130907877473</v>
       </c>
       <c r="D20">
-        <v>0.2813903869771934</v>
+        <v>0.1018509655874027</v>
       </c>
       <c r="E20">
-        <v>0.04036255531797472</v>
+        <v>0.08128832148750043</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.233292668086591</v>
+        <v>2.210877206059308</v>
       </c>
       <c r="H20">
-        <v>1.305858748991938</v>
+        <v>1.783521120851276</v>
       </c>
       <c r="I20">
-        <v>1.504432468627954</v>
+        <v>1.851201680634531</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.298714864818777</v>
+        <v>0.5267525053893394</v>
       </c>
       <c r="L20">
-        <v>0.2297387070520358</v>
+        <v>0.2378356182335324</v>
       </c>
       <c r="M20">
-        <v>0.2862058482943155</v>
+        <v>0.2008128020693505</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.424785193736795</v>
+        <v>0.728513579762847</v>
       </c>
       <c r="C21">
-        <v>0.2060622223458353</v>
+        <v>0.07544859880984234</v>
       </c>
       <c r="D21">
-        <v>0.3197431529002159</v>
+        <v>0.1119478069634425</v>
       </c>
       <c r="E21">
-        <v>0.04168687913232816</v>
+        <v>0.081341008270714</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.413636750074488</v>
+        <v>2.251255445728674</v>
       </c>
       <c r="H21">
-        <v>1.381783066660972</v>
+        <v>1.797342799613688</v>
       </c>
       <c r="I21">
-        <v>1.595740707051718</v>
+        <v>1.869809930975961</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.475395131248234</v>
+        <v>0.5701354666577174</v>
       </c>
       <c r="L21">
-        <v>0.2537562758454754</v>
+        <v>0.2426805649700157</v>
       </c>
       <c r="M21">
-        <v>0.3228839062575304</v>
+        <v>0.2089401910443769</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.536479028527594</v>
+        <v>0.7543166685591416</v>
       </c>
       <c r="C22">
-        <v>0.2208798124271425</v>
+        <v>0.07963549518562729</v>
       </c>
       <c r="D22">
-        <v>0.345258941638761</v>
+        <v>0.1185827251215699</v>
       </c>
       <c r="E22">
-        <v>0.04259270000712156</v>
+        <v>0.08139261388024721</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.535527264144719</v>
+        <v>2.278384473187771</v>
       </c>
       <c r="H22">
-        <v>1.433450113946463</v>
+        <v>1.806874616065301</v>
       </c>
       <c r="I22">
-        <v>1.657811425969683</v>
+        <v>1.882494208212307</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.592676140841718</v>
+        <v>0.5987315002184062</v>
       </c>
       <c r="L22">
-        <v>0.2698317310664891</v>
+        <v>0.2459426395250688</v>
       </c>
       <c r="M22">
-        <v>0.3472946472822187</v>
+        <v>0.2143493877749876</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.476691473536761</v>
+        <v>0.7405132031938422</v>
       </c>
       <c r="C23">
-        <v>0.2129479368819034</v>
+        <v>0.07740269907165498</v>
       </c>
       <c r="D23">
-        <v>0.3315958836864894</v>
+        <v>0.1150382282504978</v>
       </c>
       <c r="E23">
-        <v>0.0421053961845228</v>
+        <v>0.08136350277209203</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.470078331904205</v>
+        <v>2.26383742433751</v>
       </c>
       <c r="H23">
-        <v>1.405675538276881</v>
+        <v>1.801741673057705</v>
       </c>
       <c r="I23">
-        <v>1.624449980253019</v>
+        <v>1.875676499899726</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.529900047767683</v>
+        <v>0.5834470530708415</v>
       </c>
       <c r="L23">
-        <v>0.2612149149278338</v>
+        <v>0.2441928667168582</v>
       </c>
       <c r="M23">
-        <v>0.3342227504398636</v>
+        <v>0.2114534908265497</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.253845957098122</v>
+        <v>0.6889358791112556</v>
       </c>
       <c r="C24">
-        <v>0.1833804806451553</v>
+        <v>0.06890574799398053</v>
       </c>
       <c r="D24">
-        <v>0.2807703506839943</v>
+        <v>0.1016865425679612</v>
       </c>
       <c r="E24">
-        <v>0.04034155522105642</v>
+        <v>0.08128775091438101</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.230407552002418</v>
+        <v>2.210229704464155</v>
       </c>
       <c r="H24">
-        <v>1.30464984311962</v>
+        <v>1.783303625735698</v>
       </c>
       <c r="I24">
-        <v>1.502977531993636</v>
+        <v>1.850906353296466</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.295854382050265</v>
+        <v>0.5260475332720773</v>
       </c>
       <c r="L24">
-        <v>0.2293520276085559</v>
+        <v>0.2377580459981488</v>
       </c>
       <c r="M24">
-        <v>0.2856130953917244</v>
+        <v>0.2006816125353481</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.019711754463373</v>
+        <v>0.6348052702464599</v>
       </c>
       <c r="C25">
-        <v>0.152252495617418</v>
+        <v>0.05965113824927926</v>
       </c>
       <c r="D25">
-        <v>0.2275415819066069</v>
+        <v>0.08743751743706696</v>
       </c>
       <c r="E25">
-        <v>0.03859675312493671</v>
+        <v>0.08128006729614867</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.986808783573622</v>
+        <v>2.155568692323584</v>
       </c>
       <c r="H25">
-        <v>1.203376896176849</v>
+        <v>1.76555400515133</v>
       </c>
       <c r="I25">
-        <v>1.38093802421605</v>
+        <v>1.826427489813568</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.049742795153776</v>
+        <v>0.46517566731643</v>
       </c>
       <c r="L25">
-        <v>0.1963842232193542</v>
+        <v>0.23122829483777</v>
       </c>
       <c r="M25">
-        <v>0.234767992596403</v>
+        <v>0.1894821360281931</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_45/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.596238626253438</v>
+        <v>0.8513735110217056</v>
       </c>
       <c r="C2">
-        <v>0.05275607247739345</v>
+        <v>0.1297693410361518</v>
       </c>
       <c r="D2">
-        <v>0.07707292167084745</v>
+        <v>0.1893786480754471</v>
       </c>
       <c r="E2">
-        <v>0.08133836603712652</v>
+        <v>0.03743227736428523</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.118018728967002</v>
+        <v>1.8179187321619</v>
       </c>
       <c r="H2">
-        <v>1.754318280332768</v>
+        <v>1.134344842834878</v>
       </c>
       <c r="I2">
-        <v>1.810319534582341</v>
+        <v>1.297510410957408</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4212422880382007</v>
+        <v>0.8725428181605537</v>
       </c>
       <c r="L2">
-        <v>0.2267735543746383</v>
+        <v>0.1730882119609376</v>
       </c>
       <c r="M2">
-        <v>0.1815961741146062</v>
+        <v>0.1983934722233869</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5709050036153656</v>
+        <v>0.7392379228617187</v>
       </c>
       <c r="C3">
-        <v>0.04803073841155481</v>
+        <v>0.1147073750162377</v>
       </c>
       <c r="D3">
-        <v>0.07012574728479137</v>
+        <v>0.164005496753461</v>
       </c>
       <c r="E3">
-        <v>0.08141792776114087</v>
+        <v>0.03671118309626742</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.094241755356848</v>
+        <v>1.708946486517164</v>
       </c>
       <c r="H3">
-        <v>1.747844621939265</v>
+        <v>1.090533538905589</v>
       </c>
       <c r="I3">
-        <v>1.800593244768102</v>
+        <v>1.244406126553315</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3920167350184727</v>
+        <v>0.7543176206508804</v>
       </c>
       <c r="L3">
-        <v>0.2239746217362182</v>
+        <v>0.1578095617744566</v>
       </c>
       <c r="M3">
-        <v>0.1764762417096897</v>
+        <v>0.174270699150977</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.555746512494494</v>
+        <v>0.6711751702696915</v>
       </c>
       <c r="C4">
-        <v>0.04510287436224303</v>
+        <v>0.1055169475628901</v>
       </c>
       <c r="D4">
-        <v>0.06589753627913808</v>
+        <v>0.1486227699437705</v>
       </c>
       <c r="E4">
-        <v>0.08148659240934286</v>
+        <v>0.03629993737975745</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.080463671151008</v>
+        <v>1.644431186342842</v>
       </c>
       <c r="H4">
-        <v>1.744431898839963</v>
+        <v>1.064956124046716</v>
       </c>
       <c r="I4">
-        <v>1.795207060022165</v>
+        <v>1.213322571192577</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3743417770515407</v>
+        <v>0.6824575913680917</v>
       </c>
       <c r="L4">
-        <v>0.2223646465878204</v>
+        <v>0.1486494950092236</v>
       </c>
       <c r="M4">
-        <v>0.1734433447835784</v>
+        <v>0.1596799911183986</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5496691913925247</v>
+        <v>0.6436140543099782</v>
       </c>
       <c r="C5">
-        <v>0.04390301604622948</v>
+        <v>0.1017823821000547</v>
       </c>
       <c r="D5">
-        <v>0.06418385353782696</v>
+        <v>0.1423974050253349</v>
       </c>
       <c r="E5">
-        <v>0.08151956608147515</v>
+        <v>0.03613999045782634</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.075055173692476</v>
+        <v>1.618699924340433</v>
       </c>
       <c r="H5">
-        <v>1.743182527198641</v>
+        <v>1.054846135362595</v>
       </c>
       <c r="I5">
-        <v>1.793159356247955</v>
+        <v>1.201015076944778</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3672069311591883</v>
+        <v>0.6533321132777985</v>
       </c>
       <c r="L5">
-        <v>0.2217358993454468</v>
+        <v>0.1449681740788265</v>
       </c>
       <c r="M5">
-        <v>0.1722353099306879</v>
+        <v>0.1537842409738985</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5486660956487128</v>
+        <v>0.6390474674036</v>
       </c>
       <c r="C6">
-        <v>0.04370337200859353</v>
+        <v>0.1011627922347316</v>
       </c>
       <c r="D6">
-        <v>0.0638998608739314</v>
+        <v>0.1413661247401308</v>
       </c>
       <c r="E6">
-        <v>0.08152534315119375</v>
+        <v>0.03611388478485189</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.074169541624542</v>
+        <v>1.614459845546591</v>
       </c>
       <c r="H6">
-        <v>1.742983606342008</v>
+        <v>1.053185734176395</v>
       </c>
       <c r="I6">
-        <v>1.792828225053483</v>
+        <v>1.198992466482579</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3660262942128298</v>
+        <v>0.648504677940636</v>
       </c>
       <c r="L6">
-        <v>0.221633147866477</v>
+        <v>0.1443598874249687</v>
       </c>
       <c r="M6">
-        <v>0.1720364027651016</v>
+        <v>0.1528081287238621</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5556641469156318</v>
+        <v>0.6708027926173372</v>
       </c>
       <c r="C7">
-        <v>0.04508671999292346</v>
+        <v>0.1054665439098414</v>
       </c>
       <c r="D7">
-        <v>0.06587438717495786</v>
+        <v>0.1485386453948507</v>
       </c>
       <c r="E7">
-        <v>0.08148701687680671</v>
+        <v>0.03629774971258115</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.080389895813084</v>
+        <v>1.64408195574299</v>
       </c>
       <c r="H7">
-        <v>1.744414477117999</v>
+        <v>1.064818534864457</v>
       </c>
       <c r="I7">
-        <v>1.795178848055109</v>
+        <v>1.213155163298616</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.374245279278</v>
+        <v>0.6820641876942375</v>
       </c>
       <c r="L7">
-        <v>0.2223560563850313</v>
+        <v>0.1485996442354534</v>
       </c>
       <c r="M7">
-        <v>0.1734269397981336</v>
+        <v>0.1596002831192145</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.587421414807352</v>
+        <v>0.812530827991651</v>
       </c>
       <c r="C8">
-        <v>0.05113223256381616</v>
+        <v>0.1245615697045395</v>
       </c>
       <c r="D8">
-        <v>0.07466974344303878</v>
+        <v>0.1805853508548267</v>
       </c>
       <c r="E8">
-        <v>0.08136169255896419</v>
+        <v>0.03717692769162362</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.109649833617965</v>
+        <v>1.779821577493976</v>
       </c>
       <c r="H8">
-        <v>1.751969480918007</v>
+        <v>1.118951907150688</v>
       </c>
       <c r="I8">
-        <v>1.806844265710957</v>
+        <v>1.278869338885201</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4111093625356546</v>
+        <v>0.8316110872090974</v>
       </c>
       <c r="L8">
-        <v>0.2257859612031297</v>
+        <v>0.1677716859558132</v>
       </c>
       <c r="M8">
-        <v>0.1798078562333423</v>
+        <v>0.1900267317875155</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6528387605580406</v>
+        <v>1.097868094635061</v>
       </c>
       <c r="C9">
-        <v>0.06278087174425195</v>
+        <v>0.1626563787859538</v>
       </c>
       <c r="D9">
-        <v>0.09221731823673451</v>
+        <v>0.2452903764572483</v>
       </c>
       <c r="E9">
-        <v>0.08127274076810487</v>
+        <v>0.03916484144959576</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.173560903178782</v>
+        <v>2.067090376905412</v>
       </c>
       <c r="H9">
-        <v>1.771247838970964</v>
+        <v>1.23656282845451</v>
       </c>
       <c r="I9">
-        <v>1.834374982626116</v>
+        <v>1.420966754719473</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.485542147665825</v>
+        <v>1.131932180174999</v>
       </c>
       <c r="L9">
-        <v>0.2333729744536441</v>
+        <v>0.2073232548729607</v>
       </c>
       <c r="M9">
-        <v>0.1931987115020384</v>
+        <v>0.2517111361577626</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7028166573529404</v>
+        <v>1.313773655854931</v>
       </c>
       <c r="C10">
-        <v>0.07121885461336319</v>
+        <v>0.1913342058027041</v>
       </c>
       <c r="D10">
-        <v>0.1052982582023105</v>
+        <v>0.2944227347416302</v>
       </c>
       <c r="E10">
-        <v>0.08130249949973134</v>
+        <v>0.04080710377648522</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.224530028537288</v>
+        <v>2.29416503885264</v>
       </c>
       <c r="H10">
-        <v>1.788139543213561</v>
+        <v>1.331409358817695</v>
       </c>
       <c r="I10">
-        <v>1.857452807817566</v>
+        <v>1.535174571268797</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5415445712513076</v>
+        <v>1.358807086267547</v>
       </c>
       <c r="L10">
-        <v>0.2394722177147202</v>
+        <v>0.2378785587892622</v>
       </c>
       <c r="M10">
-        <v>0.2035722857155946</v>
+        <v>0.2986665119579186</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7259695090946536</v>
+        <v>1.413787176974608</v>
       </c>
       <c r="C11">
-        <v>0.07503265881992149</v>
+        <v>0.2046032618361835</v>
       </c>
       <c r="D11">
-        <v>0.1112914503664229</v>
+        <v>0.3172328752431071</v>
       </c>
       <c r="E11">
-        <v>0.08133659242415447</v>
+        <v>0.04159876810586915</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.248595925655394</v>
+        <v>2.401724203909879</v>
       </c>
       <c r="H11">
-        <v>1.796418121398005</v>
+        <v>1.376747753572886</v>
       </c>
       <c r="I11">
-        <v>1.868573690216465</v>
+        <v>1.5896888979713</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5673101598346193</v>
+        <v>1.463845901281076</v>
       </c>
       <c r="L11">
-        <v>0.2423610435771479</v>
+        <v>0.2521786735305085</v>
       </c>
       <c r="M11">
-        <v>0.2084078620727325</v>
+        <v>0.3204826288908365</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7347968720181086</v>
+        <v>1.451957573051914</v>
       </c>
       <c r="C12">
-        <v>0.07647338489518063</v>
+        <v>0.209666798713684</v>
       </c>
       <c r="D12">
-        <v>0.1135671224978978</v>
+        <v>0.3259468570603588</v>
       </c>
       <c r="E12">
-        <v>0.08135244942837261</v>
+        <v>0.04190542616123949</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.257836004929629</v>
+        <v>2.443138560682684</v>
       </c>
       <c r="H12">
-        <v>1.799638568147742</v>
+        <v>1.394264442504152</v>
       </c>
       <c r="I12">
-        <v>1.87287459428461</v>
+        <v>1.610739673018443</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5771086791311859</v>
+        <v>1.503928420887945</v>
       </c>
       <c r="L12">
-        <v>0.2434713860890412</v>
+        <v>0.2576581492862715</v>
       </c>
       <c r="M12">
-        <v>0.2102557164773629</v>
+        <v>0.3288184950100259</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7328930810577106</v>
+        <v>1.443723004234897</v>
       </c>
       <c r="C13">
-        <v>0.0761632523654896</v>
+        <v>0.2085744339080264</v>
       </c>
       <c r="D13">
-        <v>0.1130767400617714</v>
+        <v>0.3240665801787657</v>
       </c>
       <c r="E13">
-        <v>0.08134890342564383</v>
+        <v>0.04183906846849261</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.255840341668772</v>
+        <v>2.434187607631827</v>
       </c>
       <c r="H13">
-        <v>1.798941182639197</v>
+        <v>1.39047587555811</v>
       </c>
       <c r="I13">
-        <v>1.871944327599678</v>
+        <v>1.606187229400746</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5749965406161266</v>
+        <v>1.495281565031121</v>
       </c>
       <c r="L13">
-        <v>0.2432315246106214</v>
+        <v>0.2564750704748349</v>
       </c>
       <c r="M13">
-        <v>0.2098570046494714</v>
+        <v>0.3270197474264691</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7266945424656512</v>
+        <v>1.416921280131675</v>
       </c>
       <c r="C14">
-        <v>0.07515125754170526</v>
+        <v>0.2050190228364244</v>
       </c>
       <c r="D14">
-        <v>0.1114785471119433</v>
+        <v>0.3179481892874492</v>
       </c>
       <c r="E14">
-        <v>0.08133783798395378</v>
+        <v>0.04162385654456102</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.249353568430536</v>
+        <v>2.405117246512702</v>
       </c>
       <c r="H14">
-        <v>1.796681355092545</v>
+        <v>1.37818168810341</v>
       </c>
       <c r="I14">
-        <v>1.86892573037575</v>
+        <v>1.59141235557648</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5681154553049623</v>
+        <v>1.467137107527549</v>
       </c>
       <c r="L14">
-        <v>0.2424520634308323</v>
+        <v>0.2526281429927053</v>
       </c>
       <c r="M14">
-        <v>0.2085595511570091</v>
+        <v>0.3211668762612661</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.722905551594522</v>
+        <v>1.400544409141588</v>
       </c>
       <c r="C15">
-        <v>0.07453093052106396</v>
+        <v>0.2028464992704215</v>
       </c>
       <c r="D15">
-        <v>0.1105004142363555</v>
+        <v>0.3142107503934142</v>
       </c>
       <c r="E15">
-        <v>0.08133144356667721</v>
+        <v>0.04149294230168898</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.24539676159776</v>
+        <v>2.387402122680612</v>
       </c>
       <c r="H15">
-        <v>1.795308285260063</v>
+        <v>1.370697493185332</v>
       </c>
       <c r="I15">
-        <v>1.867088433581401</v>
+        <v>1.582416598469521</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5639060153046387</v>
+        <v>1.449939094544675</v>
       </c>
       <c r="L15">
-        <v>0.241976756960625</v>
+        <v>0.2502803782657281</v>
       </c>
       <c r="M15">
-        <v>0.2077670006044343</v>
+        <v>0.3175918180266493</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7013119530327003</v>
+        <v>1.307276950555348</v>
       </c>
       <c r="C16">
-        <v>0.07096912293005175</v>
+        <v>0.1904720948099055</v>
       </c>
       <c r="D16">
-        <v>0.104907450929943</v>
+        <v>0.2929421359890938</v>
       </c>
       <c r="E16">
-        <v>0.08130068429708004</v>
+        <v>0.04075630232822292</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.222974997642694</v>
+        <v>2.287227484883488</v>
       </c>
       <c r="H16">
-        <v>1.787610484610809</v>
+        <v>1.328493232872006</v>
       </c>
       <c r="I16">
-        <v>1.856738572590288</v>
+        <v>1.531666722392742</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5398665589606821</v>
+        <v>1.351983014752562</v>
       </c>
       <c r="L16">
-        <v>0.2392857232438672</v>
+        <v>0.2369526327819216</v>
       </c>
       <c r="M16">
-        <v>0.2032586121347322</v>
+        <v>0.2972507028676858</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6881718234071457</v>
+        <v>1.250547270101123</v>
       </c>
       <c r="C17">
-        <v>0.06877779853878963</v>
+        <v>0.1829425722481517</v>
       </c>
       <c r="D17">
-        <v>0.1014872997693885</v>
+        <v>0.2800191972997652</v>
       </c>
       <c r="E17">
-        <v>0.08128707274737224</v>
+        <v>0.04031613304901782</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.209445543389705</v>
+        <v>2.226913691566324</v>
       </c>
       <c r="H17">
-        <v>1.783040420728668</v>
+        <v>1.303186126176996</v>
       </c>
       <c r="I17">
-        <v>1.850548838748935</v>
+        <v>1.501215876124135</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5251933391847103</v>
+        <v>1.292388817773059</v>
       </c>
       <c r="L17">
-        <v>0.2376641073980892</v>
+        <v>0.2288836517917758</v>
       </c>
       <c r="M17">
-        <v>0.2005226946576428</v>
+        <v>0.2848950060771998</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6806532904949734</v>
+        <v>1.2180844533531</v>
       </c>
       <c r="C18">
-        <v>0.06751507985462979</v>
+        <v>0.1786323738818396</v>
       </c>
       <c r="D18">
-        <v>0.09952412644696551</v>
+        <v>0.2726288595377611</v>
       </c>
       <c r="E18">
-        <v>0.081281179068867</v>
+        <v>0.04006712661644762</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.201746548716187</v>
+        <v>2.192619285320177</v>
       </c>
       <c r="H18">
-        <v>1.780467791070009</v>
+        <v>1.288834351817172</v>
       </c>
       <c r="I18">
-        <v>1.847047267846108</v>
+        <v>1.483939818283176</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5167809702622321</v>
+        <v>1.258281458460573</v>
       </c>
       <c r="L18">
-        <v>0.2367421518515016</v>
+        <v>0.224279830506589</v>
       </c>
       <c r="M18">
-        <v>0.1989600430909562</v>
+        <v>0.2778306577772156</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.678114403541457</v>
+        <v>1.20712058424985</v>
       </c>
       <c r="C19">
-        <v>0.06708714324862797</v>
+        <v>0.177176356572474</v>
       </c>
       <c r="D19">
-        <v>0.09886011629717473</v>
+        <v>0.2701336385867137</v>
       </c>
       <c r="E19">
-        <v>0.08127951624276442</v>
+        <v>0.03998351969159764</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.199154010446591</v>
+        <v>2.181073825976796</v>
       </c>
       <c r="H19">
-        <v>1.779606350988786</v>
+        <v>1.284009211260212</v>
       </c>
       <c r="I19">
-        <v>1.845871756855374</v>
+        <v>1.478130264303616</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5139373726658221</v>
+        <v>1.246761182531117</v>
       </c>
       <c r="L19">
-        <v>0.2364318414062581</v>
+        <v>0.2227272562154781</v>
       </c>
       <c r="M19">
-        <v>0.1984328424054453</v>
+        <v>0.2754457983510505</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6895665442506527</v>
+        <v>1.256568728424583</v>
       </c>
       <c r="C20">
-        <v>0.06901130907877473</v>
+        <v>0.183741925978822</v>
       </c>
       <c r="D20">
-        <v>0.1018509655874027</v>
+        <v>0.281390386977094</v>
       </c>
       <c r="E20">
-        <v>0.08128832148750043</v>
+        <v>0.0403625553179765</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.210877206059308</v>
+        <v>2.233292668086534</v>
       </c>
       <c r="H20">
-        <v>1.783521120851276</v>
+        <v>1.305858748991966</v>
       </c>
       <c r="I20">
-        <v>1.851201680634531</v>
+        <v>1.504432468627968</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5267525053893394</v>
+        <v>1.298714864818749</v>
       </c>
       <c r="L20">
-        <v>0.2378356182335324</v>
+        <v>0.2297387070519221</v>
       </c>
       <c r="M20">
-        <v>0.2008128020693505</v>
+        <v>0.2862058482943368</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.728513579762847</v>
+        <v>1.424785193736767</v>
       </c>
       <c r="C21">
-        <v>0.07544859880984234</v>
+        <v>0.2060622223458353</v>
       </c>
       <c r="D21">
-        <v>0.1119478069634425</v>
+        <v>0.3197431529002017</v>
       </c>
       <c r="E21">
-        <v>0.081341008270714</v>
+        <v>0.04168687913229796</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.251255445728674</v>
+        <v>2.413636750074602</v>
       </c>
       <c r="H21">
-        <v>1.797342799613688</v>
+        <v>1.381783066660859</v>
       </c>
       <c r="I21">
-        <v>1.869809930975961</v>
+        <v>1.595740707051718</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5701354666577174</v>
+        <v>1.475395131248121</v>
       </c>
       <c r="L21">
-        <v>0.2426805649700157</v>
+        <v>0.2537562758454612</v>
       </c>
       <c r="M21">
-        <v>0.2089401910443769</v>
+        <v>0.3228839062575233</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7543166685591416</v>
+        <v>1.536479028527651</v>
       </c>
       <c r="C22">
-        <v>0.07963549518562729</v>
+        <v>0.2208798124275546</v>
       </c>
       <c r="D22">
-        <v>0.1185827251215699</v>
+        <v>0.3452589416388463</v>
       </c>
       <c r="E22">
-        <v>0.08139261388024721</v>
+        <v>0.04259270000716953</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.278384473187771</v>
+        <v>2.535527264144804</v>
       </c>
       <c r="H22">
-        <v>1.806874616065301</v>
+        <v>1.433450113946293</v>
       </c>
       <c r="I22">
-        <v>1.882494208212307</v>
+        <v>1.657811425969683</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5987315002184062</v>
+        <v>1.59267614084186</v>
       </c>
       <c r="L22">
-        <v>0.2459426395250688</v>
+        <v>0.2698317310664606</v>
       </c>
       <c r="M22">
-        <v>0.2143493877749876</v>
+        <v>0.3472946472822258</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7405132031938422</v>
+        <v>1.476691473536818</v>
       </c>
       <c r="C23">
-        <v>0.07740269907165498</v>
+        <v>0.2129479368823581</v>
       </c>
       <c r="D23">
-        <v>0.1150382282504978</v>
+        <v>0.3315958836863615</v>
       </c>
       <c r="E23">
-        <v>0.08136350277209203</v>
+        <v>0.04210539618453879</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.26383742433751</v>
+        <v>2.470078331904176</v>
       </c>
       <c r="H23">
-        <v>1.801741673057705</v>
+        <v>1.405675538276995</v>
       </c>
       <c r="I23">
-        <v>1.875676499899726</v>
+        <v>1.624449980253047</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5834470530708415</v>
+        <v>1.529900047767711</v>
       </c>
       <c r="L23">
-        <v>0.2441928667168582</v>
+        <v>0.2612149149280043</v>
       </c>
       <c r="M23">
-        <v>0.2114534908265497</v>
+        <v>0.3342227504398494</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6889358791112556</v>
+        <v>1.253845957097951</v>
       </c>
       <c r="C24">
-        <v>0.06890574799398053</v>
+        <v>0.1833804806449422</v>
       </c>
       <c r="D24">
-        <v>0.1016865425679612</v>
+        <v>0.2807703506839658</v>
       </c>
       <c r="E24">
-        <v>0.08128775091438101</v>
+        <v>0.04034155522096583</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.210229704464155</v>
+        <v>2.230407552002418</v>
       </c>
       <c r="H24">
-        <v>1.783303625735698</v>
+        <v>1.30464984311962</v>
       </c>
       <c r="I24">
-        <v>1.850906353296466</v>
+        <v>1.50297753199365</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5260475332720773</v>
+        <v>1.295854382050209</v>
       </c>
       <c r="L24">
-        <v>0.2377580459981488</v>
+        <v>0.2293520276085559</v>
       </c>
       <c r="M24">
-        <v>0.2006816125353481</v>
+        <v>0.2856130953917031</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6348052702464599</v>
+        <v>1.019711754463486</v>
       </c>
       <c r="C25">
-        <v>0.05965113824927926</v>
+        <v>0.1522524956174038</v>
       </c>
       <c r="D25">
-        <v>0.08743751743706696</v>
+        <v>0.227541581906948</v>
       </c>
       <c r="E25">
-        <v>0.08128006729614867</v>
+        <v>0.03859675312490474</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.155568692323584</v>
+        <v>1.986808783573764</v>
       </c>
       <c r="H25">
-        <v>1.76555400515133</v>
+        <v>1.20337689617682</v>
       </c>
       <c r="I25">
-        <v>1.826427489813568</v>
+        <v>1.38093802421605</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.46517566731643</v>
+        <v>1.049742795153804</v>
       </c>
       <c r="L25">
-        <v>0.23122829483777</v>
+        <v>0.1963842232193116</v>
       </c>
       <c r="M25">
-        <v>0.1894821360281931</v>
+        <v>0.2347679925964101</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_45/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,52 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8513735110217056</v>
+        <v>3.435243996924328</v>
       </c>
       <c r="C2">
-        <v>0.1297693410361518</v>
+        <v>1.032275166767135</v>
       </c>
       <c r="D2">
-        <v>0.1893786480754471</v>
+        <v>0.6054981229969485</v>
       </c>
       <c r="E2">
-        <v>0.03743227736428523</v>
+        <v>0.2877723527957912</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.8179187321619</v>
+        <v>0.3598478731184755</v>
       </c>
       <c r="H2">
-        <v>1.134344842834878</v>
+        <v>0.0002304849360705852</v>
       </c>
       <c r="I2">
-        <v>1.297510410957408</v>
+        <v>0.001120574247745587</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2985291785916075</v>
       </c>
       <c r="K2">
-        <v>0.8725428181605537</v>
+        <v>0.1812616586718541</v>
       </c>
       <c r="L2">
-        <v>0.1730882119609376</v>
+        <v>0.1841311917314528</v>
       </c>
       <c r="M2">
-        <v>0.1983934722233869</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,46 +468,52 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.336670343264927</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7392379228617187</v>
+        <v>2.994480860746364</v>
       </c>
       <c r="C3">
-        <v>0.1147073750162377</v>
+        <v>0.9038890647991593</v>
       </c>
       <c r="D3">
-        <v>0.164005496753461</v>
+        <v>0.5455149680220188</v>
       </c>
       <c r="E3">
-        <v>0.03671118309626742</v>
+        <v>0.2574457066647255</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.708946486517164</v>
+        <v>0.3412234476409921</v>
       </c>
       <c r="H3">
-        <v>1.090533538905589</v>
+        <v>1.276638541325426E-06</v>
       </c>
       <c r="I3">
-        <v>1.244406126553315</v>
+        <v>0.0005738973190481111</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2950294539561469</v>
       </c>
       <c r="K3">
-        <v>0.7543176206508804</v>
+        <v>0.191794889740434</v>
       </c>
       <c r="L3">
-        <v>0.1578095617744566</v>
+        <v>0.1630968182584667</v>
       </c>
       <c r="M3">
-        <v>0.174270699150977</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,46 +521,52 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.28951923031029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6711751702696915</v>
+        <v>2.723390698706282</v>
       </c>
       <c r="C4">
-        <v>0.1055169475628901</v>
+        <v>0.8254902935057657</v>
       </c>
       <c r="D4">
-        <v>0.1486227699437705</v>
+        <v>0.5088656741731654</v>
       </c>
       <c r="E4">
-        <v>0.03629993737975745</v>
+        <v>0.2388415030961681</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.644431186342842</v>
+        <v>0.3303095651103334</v>
       </c>
       <c r="H4">
-        <v>1.064956124046716</v>
+        <v>0.0001323609853378649</v>
       </c>
       <c r="I4">
-        <v>1.213322571192577</v>
+        <v>0.0004414163213701805</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2932256580889572</v>
       </c>
       <c r="K4">
-        <v>0.6824575913680917</v>
+        <v>0.1986706570201715</v>
       </c>
       <c r="L4">
-        <v>0.1486494950092236</v>
+        <v>0.1501877331267849</v>
       </c>
       <c r="M4">
-        <v>0.1596799911183986</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,46 +574,52 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.262387535390488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6436140543099782</v>
+        <v>2.612767959971222</v>
       </c>
       <c r="C5">
-        <v>0.1017823821000547</v>
+        <v>0.7950018616932368</v>
       </c>
       <c r="D5">
-        <v>0.1423974050253349</v>
+        <v>0.4939641948323583</v>
       </c>
       <c r="E5">
-        <v>0.03613999045782634</v>
+        <v>0.2312564466001561</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.618699924340433</v>
+        <v>0.3254755950155044</v>
       </c>
       <c r="H5">
-        <v>1.054846135362595</v>
+        <v>0.0002507896371923835</v>
       </c>
       <c r="I5">
-        <v>1.201015076944778</v>
+        <v>0.0004998086886160991</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2923065076395446</v>
       </c>
       <c r="K5">
-        <v>0.6533321132777985</v>
+        <v>0.2013364686765939</v>
       </c>
       <c r="L5">
-        <v>0.1449681740788265</v>
+        <v>0.1449212628743481</v>
       </c>
       <c r="M5">
-        <v>0.1537842409738985</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,46 +627,52 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.250124127180442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6390474674036</v>
+        <v>2.594366215657601</v>
       </c>
       <c r="C6">
-        <v>0.1011627922347316</v>
+        <v>0.7916145104834698</v>
       </c>
       <c r="D6">
-        <v>0.1413661247401308</v>
+        <v>0.4914844806447718</v>
       </c>
       <c r="E6">
-        <v>0.03611388478485189</v>
+        <v>0.2299908766258838</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.614459845546591</v>
+        <v>0.3240584840088658</v>
       </c>
       <c r="H6">
-        <v>1.053185734176395</v>
+        <v>0.0002747478449085516</v>
       </c>
       <c r="I6">
-        <v>1.198992466482579</v>
+        <v>0.0005986429987450137</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2918326302192966</v>
       </c>
       <c r="K6">
-        <v>0.648504677940636</v>
+        <v>0.2014995207756041</v>
       </c>
       <c r="L6">
-        <v>0.1443598874249687</v>
+        <v>0.1440407284321594</v>
       </c>
       <c r="M6">
-        <v>0.1528081287238621</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,46 +680,52 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.246112440815438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6708027926173372</v>
+        <v>2.721831068062897</v>
       </c>
       <c r="C7">
-        <v>0.1054665439098414</v>
+        <v>0.8296494924989872</v>
       </c>
       <c r="D7">
-        <v>0.1485386453948507</v>
+        <v>0.508644194572895</v>
       </c>
       <c r="E7">
-        <v>0.03629774971258115</v>
+        <v>0.2387228363715792</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.64408195574299</v>
+        <v>0.3285460992949751</v>
       </c>
       <c r="H7">
-        <v>1.064818534864457</v>
+        <v>0.00013458693536883</v>
       </c>
       <c r="I7">
-        <v>1.213155163298616</v>
+        <v>0.0006624451150072375</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2923233593302186</v>
       </c>
       <c r="K7">
-        <v>0.6820641876942375</v>
+        <v>0.1979296796204046</v>
       </c>
       <c r="L7">
-        <v>0.1485996442354534</v>
+        <v>0.1501007083132251</v>
       </c>
       <c r="M7">
-        <v>0.1596002831192145</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,46 +733,52 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.25675865703812</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.812530827991651</v>
+        <v>3.283258854114649</v>
       </c>
       <c r="C8">
-        <v>0.1245615697045395</v>
+        <v>0.9940158791972351</v>
       </c>
       <c r="D8">
-        <v>0.1805853508548267</v>
+        <v>0.5847491557829301</v>
       </c>
       <c r="E8">
-        <v>0.03717692769162362</v>
+        <v>0.2772898243917723</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.779821577493976</v>
+        <v>0.3510684043573917</v>
       </c>
       <c r="H8">
-        <v>1.118951907150688</v>
+        <v>9.186076600586901E-05</v>
       </c>
       <c r="I8">
-        <v>1.278869338885201</v>
+        <v>0.001150002960627283</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2960776945968107</v>
       </c>
       <c r="K8">
-        <v>0.8316110872090974</v>
+        <v>0.1837971510973446</v>
       </c>
       <c r="L8">
-        <v>0.1677716859558132</v>
+        <v>0.1768549865494577</v>
       </c>
       <c r="M8">
-        <v>0.1900267317875155</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,46 +786,52 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.312810123527456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.097868094635061</v>
+        <v>4.381525444510714</v>
       </c>
       <c r="C9">
-        <v>0.1626563787859538</v>
+        <v>1.311994159027734</v>
       </c>
       <c r="D9">
-        <v>0.2452903764572483</v>
+        <v>0.7357396234384623</v>
       </c>
       <c r="E9">
-        <v>0.03916484144959576</v>
+        <v>0.3532159215515378</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.067090376905412</v>
+        <v>0.4028393295360218</v>
       </c>
       <c r="H9">
-        <v>1.23656282845451</v>
+        <v>0.002343175688305665</v>
       </c>
       <c r="I9">
-        <v>1.420966754719473</v>
+        <v>0.003547086334633853</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3079495376193933</v>
       </c>
       <c r="K9">
-        <v>1.131932180174999</v>
+        <v>0.1608849347373873</v>
       </c>
       <c r="L9">
-        <v>0.2073232548729607</v>
+        <v>0.2295210258154938</v>
       </c>
       <c r="M9">
-        <v>0.2517111361577626</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,46 +839,52 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.448220074082144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.313773655854931</v>
+        <v>5.187388206681646</v>
       </c>
       <c r="C10">
-        <v>0.1913342058027041</v>
+        <v>1.547007488097847</v>
       </c>
       <c r="D10">
-        <v>0.2944227347416302</v>
+        <v>0.831306390447935</v>
       </c>
       <c r="E10">
-        <v>0.04080710377648522</v>
+        <v>0.3957547551963359</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.29416503885264</v>
+        <v>0.4348232863102197</v>
       </c>
       <c r="H10">
-        <v>1.331409358817695</v>
+        <v>0.005625298629899689</v>
       </c>
       <c r="I10">
-        <v>1.535174571268797</v>
+        <v>0.006659018158698515</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3139994324037048</v>
       </c>
       <c r="K10">
-        <v>1.358807086267547</v>
+        <v>0.143909882179539</v>
       </c>
       <c r="L10">
-        <v>0.2378785587892622</v>
+        <v>0.2554972645938989</v>
       </c>
       <c r="M10">
-        <v>0.2986665119579186</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,46 +892,52 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.529233750704265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.413787176974608</v>
+        <v>5.54890539055225</v>
       </c>
       <c r="C11">
-        <v>0.2046032618361835</v>
+        <v>1.626257019740933</v>
       </c>
       <c r="D11">
-        <v>0.3172328752431071</v>
+        <v>0.7334878833093796</v>
       </c>
       <c r="E11">
-        <v>0.04159876810586915</v>
+        <v>0.3055518857387369</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.401724203909879</v>
+        <v>0.3752693573977979</v>
       </c>
       <c r="H11">
-        <v>1.376747753572886</v>
+        <v>0.0241159337993011</v>
       </c>
       <c r="I11">
-        <v>1.5896888979713</v>
+        <v>0.008146998316702181</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2797035754920785</v>
       </c>
       <c r="K11">
-        <v>1.463845901281076</v>
+        <v>0.1191551371601705</v>
       </c>
       <c r="L11">
-        <v>0.2521786735305085</v>
+        <v>0.1686865670976161</v>
       </c>
       <c r="M11">
-        <v>0.3204826288908365</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,46 +945,52 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.33137408385403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.451957573051914</v>
+        <v>5.683825352936708</v>
       </c>
       <c r="C12">
-        <v>0.209666798713684</v>
+        <v>1.635022794393478</v>
       </c>
       <c r="D12">
-        <v>0.3259468570603588</v>
+        <v>0.6365147674674745</v>
       </c>
       <c r="E12">
-        <v>0.04190542616123949</v>
+        <v>0.2318908680796312</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.443138560682684</v>
+        <v>0.3237976635208639</v>
       </c>
       <c r="H12">
-        <v>1.394264442504152</v>
+        <v>0.06232444832912876</v>
       </c>
       <c r="I12">
-        <v>1.610739673018443</v>
+        <v>0.008325431062569777</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2520587955012701</v>
       </c>
       <c r="K12">
-        <v>1.503928420887945</v>
+        <v>0.105502313443373</v>
       </c>
       <c r="L12">
-        <v>0.2576581492862715</v>
+        <v>0.1091659829829723</v>
       </c>
       <c r="M12">
-        <v>0.3288184950100259</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,46 +998,52 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.164434054364051</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.443723004234897</v>
+        <v>5.650744731504005</v>
       </c>
       <c r="C13">
-        <v>0.2085744339080264</v>
+        <v>1.597261631184892</v>
       </c>
       <c r="D13">
-        <v>0.3240665801787657</v>
+        <v>0.535152402505048</v>
       </c>
       <c r="E13">
-        <v>0.04183906846849261</v>
+        <v>0.1670540288408198</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.434187607631827</v>
+        <v>0.272909125382732</v>
       </c>
       <c r="H13">
-        <v>1.39047587555811</v>
+        <v>0.1172682413786248</v>
       </c>
       <c r="I13">
-        <v>1.606187229400746</v>
+        <v>0.007789920842552256</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2264976635296847</v>
       </c>
       <c r="K13">
-        <v>1.495281565031121</v>
+        <v>0.0981565607877064</v>
       </c>
       <c r="L13">
-        <v>0.2564750704748349</v>
+        <v>0.06730977532949112</v>
       </c>
       <c r="M13">
-        <v>0.3270197474264691</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,46 +1051,52 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.002988227603694</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.416921280131675</v>
+        <v>5.551472211839894</v>
       </c>
       <c r="C14">
-        <v>0.2050190228364244</v>
+        <v>1.5513202522352</v>
       </c>
       <c r="D14">
-        <v>0.3179481892874492</v>
+        <v>0.4636952269610504</v>
       </c>
       <c r="E14">
-        <v>0.04162385654456102</v>
+        <v>0.1275911984157787</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.405117246512702</v>
+        <v>0.2379204060295379</v>
       </c>
       <c r="H14">
-        <v>1.37818168810341</v>
+        <v>0.165953331900738</v>
       </c>
       <c r="I14">
-        <v>1.59141235557648</v>
+        <v>0.00719286951764353</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2096727877917814</v>
       </c>
       <c r="K14">
-        <v>1.467137107527549</v>
+        <v>0.09611113589296183</v>
       </c>
       <c r="L14">
-        <v>0.2526281429927053</v>
+        <v>0.04875379744547992</v>
       </c>
       <c r="M14">
-        <v>0.3211668762612661</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,46 +1104,52 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.8935062633010062</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.400544409141588</v>
+        <v>5.491434252074498</v>
       </c>
       <c r="C15">
-        <v>0.2028464992704215</v>
+        <v>1.532266966107613</v>
       </c>
       <c r="D15">
-        <v>0.3142107503934142</v>
+        <v>0.4447846838756675</v>
       </c>
       <c r="E15">
-        <v>0.04149294230168898</v>
+        <v>0.1184740563272868</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.387402122680612</v>
+        <v>0.2287434417658858</v>
       </c>
       <c r="H15">
-        <v>1.370697493185332</v>
+        <v>0.1781913491151386</v>
       </c>
       <c r="I15">
-        <v>1.582416598469521</v>
+        <v>0.007005472123965184</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2056391683611309</v>
       </c>
       <c r="K15">
-        <v>1.449939094544675</v>
+        <v>0.09652570847539965</v>
       </c>
       <c r="L15">
-        <v>0.2502803782657281</v>
+        <v>0.04554027668390237</v>
       </c>
       <c r="M15">
-        <v>0.3175918180266493</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,46 +1157,52 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.8655631571966893</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.307276950555348</v>
+        <v>5.150262738089225</v>
       </c>
       <c r="C16">
-        <v>0.1904720948099055</v>
+        <v>1.442083025325815</v>
       </c>
       <c r="D16">
-        <v>0.2929421359890938</v>
+        <v>0.4270960282114658</v>
       </c>
       <c r="E16">
-        <v>0.04075630232822292</v>
+        <v>0.1154250764512277</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.287227484883488</v>
+        <v>0.2248824358878352</v>
       </c>
       <c r="H16">
-        <v>1.328493232872006</v>
+        <v>0.1642404707206566</v>
       </c>
       <c r="I16">
-        <v>1.531666722392742</v>
+        <v>0.005808608711151741</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2077820870901945</v>
       </c>
       <c r="K16">
-        <v>1.351983014752562</v>
+        <v>0.104249514181828</v>
       </c>
       <c r="L16">
-        <v>0.2369526327819216</v>
+        <v>0.04438128153544074</v>
       </c>
       <c r="M16">
-        <v>0.2972507028676858</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,46 +1210,52 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.8616400430403814</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.250547270101123</v>
+        <v>4.941957750990127</v>
       </c>
       <c r="C17">
-        <v>0.1829425722481517</v>
+        <v>1.397611865630211</v>
       </c>
       <c r="D17">
-        <v>0.2800191972997652</v>
+        <v>0.4504802287524683</v>
       </c>
       <c r="E17">
-        <v>0.04031613304901782</v>
+        <v>0.1326638682461301</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.226913691566324</v>
+        <v>0.2401108657826327</v>
       </c>
       <c r="H17">
-        <v>1.303186126176996</v>
+        <v>0.1258903690687134</v>
       </c>
       <c r="I17">
-        <v>1.501215876124135</v>
+        <v>0.005251730729266768</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2182274971594538</v>
       </c>
       <c r="K17">
-        <v>1.292388817773059</v>
+        <v>0.111150487305598</v>
       </c>
       <c r="L17">
-        <v>0.2288836517917758</v>
+        <v>0.05138303514743825</v>
       </c>
       <c r="M17">
-        <v>0.2848950060771998</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,46 +1263,52 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.9156644624730745</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.2180844533531</v>
+        <v>4.823695089601131</v>
       </c>
       <c r="C18">
-        <v>0.1786323738818396</v>
+        <v>1.382978524963562</v>
       </c>
       <c r="D18">
-        <v>0.2726288595377611</v>
+        <v>0.5151411013401344</v>
       </c>
       <c r="E18">
-        <v>0.04006712661644762</v>
+        <v>0.1751803218953718</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.192619285320177</v>
+        <v>0.2761435511929946</v>
       </c>
       <c r="H18">
-        <v>1.288834351817172</v>
+        <v>0.07302726061870857</v>
       </c>
       <c r="I18">
-        <v>1.483939818283176</v>
+        <v>0.004863115571370535</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2382435439720396</v>
       </c>
       <c r="K18">
-        <v>1.258281458460573</v>
+        <v>0.1196008915827473</v>
       </c>
       <c r="L18">
-        <v>0.224279830506589</v>
+        <v>0.07567532262719467</v>
       </c>
       <c r="M18">
-        <v>0.2778306577772156</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,46 +1316,52 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.033902688190324</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.20712058424985</v>
+        <v>4.785969569897077</v>
       </c>
       <c r="C19">
-        <v>0.177176356572474</v>
+        <v>1.402075577609992</v>
       </c>
       <c r="D19">
-        <v>0.2701336385867137</v>
+        <v>0.6138552674993605</v>
       </c>
       <c r="E19">
-        <v>0.03998351969159764</v>
+        <v>0.2440469457845964</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.181073825976796</v>
+        <v>0.3266685418198847</v>
       </c>
       <c r="H19">
-        <v>1.284009211260212</v>
+        <v>0.02833284494346344</v>
       </c>
       <c r="I19">
-        <v>1.478130264303616</v>
+        <v>0.005133412590997644</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2644446109957101</v>
       </c>
       <c r="K19">
-        <v>1.246761182531117</v>
+        <v>0.1299621598982554</v>
       </c>
       <c r="L19">
-        <v>0.2227272562154781</v>
+        <v>0.126465327053765</v>
       </c>
       <c r="M19">
-        <v>0.2754457983510505</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,46 +1369,52 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.19587780220894</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.256568728424583</v>
+        <v>4.975500138907989</v>
       </c>
       <c r="C20">
-        <v>0.183741925978822</v>
+        <v>1.499621506805624</v>
       </c>
       <c r="D20">
-        <v>0.281390386977094</v>
+        <v>0.8053672180585636</v>
       </c>
       <c r="E20">
-        <v>0.0403625553179765</v>
+        <v>0.3839545025139017</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.233292668086534</v>
+        <v>0.420593335537788</v>
       </c>
       <c r="H20">
-        <v>1.305858748991966</v>
+        <v>0.004609509759246677</v>
       </c>
       <c r="I20">
-        <v>1.504432468627968</v>
+        <v>0.006428265949937284</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3093776623323095</v>
       </c>
       <c r="K20">
-        <v>1.298714864818749</v>
+        <v>0.14587726481939</v>
       </c>
       <c r="L20">
-        <v>0.2297387070519221</v>
+        <v>0.2480662111744323</v>
       </c>
       <c r="M20">
-        <v>0.2862058482943368</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,46 +1422,52 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.4892518880973</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.424785193736767</v>
+        <v>5.595039676539386</v>
       </c>
       <c r="C21">
-        <v>0.2060622223458353</v>
+        <v>1.68442975429997</v>
       </c>
       <c r="D21">
-        <v>0.3197431529002017</v>
+        <v>0.9052847845343024</v>
       </c>
       <c r="E21">
-        <v>0.04168687913229796</v>
+        <v>0.4378092211373428</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.413636750074602</v>
+        <v>0.4608780015463481</v>
       </c>
       <c r="H21">
-        <v>1.381783066660859</v>
+        <v>0.007825347502494806</v>
       </c>
       <c r="I21">
-        <v>1.595740707051718</v>
+        <v>0.009250687501212163</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3220043627216</v>
       </c>
       <c r="K21">
-        <v>1.475395131248121</v>
+        <v>0.1375689707810679</v>
       </c>
       <c r="L21">
-        <v>0.2537562758454612</v>
+        <v>0.2882527227532421</v>
       </c>
       <c r="M21">
-        <v>0.3228839062575233</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,46 +1475,52 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.601501905724632</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.536479028527651</v>
+        <v>6.000147888448737</v>
       </c>
       <c r="C22">
-        <v>0.2208798124275546</v>
+        <v>1.797809219801479</v>
       </c>
       <c r="D22">
-        <v>0.3452589416388463</v>
+        <v>0.9624662326128828</v>
       </c>
       <c r="E22">
-        <v>0.04259270000716953</v>
+        <v>0.4662403543417</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.535527264144804</v>
+        <v>0.4858423824768323</v>
       </c>
       <c r="H22">
-        <v>1.433450113946293</v>
+        <v>0.01028963095910657</v>
       </c>
       <c r="I22">
-        <v>1.657811425969683</v>
+        <v>0.01110423872238187</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3296653682915576</v>
       </c>
       <c r="K22">
-        <v>1.59267614084186</v>
+        <v>0.1324953745983013</v>
       </c>
       <c r="L22">
-        <v>0.2698317310664606</v>
+        <v>0.3080332714109915</v>
       </c>
       <c r="M22">
-        <v>0.3472946472822258</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,46 +1528,52 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.670723248835287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.476691473536818</v>
+        <v>5.783990167107902</v>
       </c>
       <c r="C23">
-        <v>0.2129479368823581</v>
+        <v>1.731614824349776</v>
       </c>
       <c r="D23">
-        <v>0.3315958836863615</v>
+        <v>0.9319279308745365</v>
       </c>
       <c r="E23">
-        <v>0.04210539618453879</v>
+        <v>0.4510688454570513</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.470078331904176</v>
+        <v>0.4744196566289816</v>
       </c>
       <c r="H23">
-        <v>1.405675538276995</v>
+        <v>0.008942968435432463</v>
       </c>
       <c r="I23">
-        <v>1.624449980253047</v>
+        <v>0.009823691500518095</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3265547579416079</v>
       </c>
       <c r="K23">
-        <v>1.529900047767711</v>
+        <v>0.1359894142733697</v>
       </c>
       <c r="L23">
-        <v>0.2612149149280043</v>
+        <v>0.2974818395517644</v>
       </c>
       <c r="M23">
-        <v>0.3342227504398494</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,46 +1581,52 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.63985700914148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.253845957097951</v>
+        <v>4.965989146804759</v>
       </c>
       <c r="C24">
-        <v>0.1833804806449422</v>
+        <v>1.49128050302312</v>
       </c>
       <c r="D24">
-        <v>0.2807703506839658</v>
+        <v>0.817065127523108</v>
       </c>
       <c r="E24">
-        <v>0.04034155522096583</v>
+        <v>0.3938609344103483</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.230407552002418</v>
+        <v>0.4297940137360001</v>
       </c>
       <c r="H24">
-        <v>1.30464984311962</v>
+        <v>0.004621337337896159</v>
       </c>
       <c r="I24">
-        <v>1.50297753199365</v>
+        <v>0.006003563822720714</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3141492773807784</v>
       </c>
       <c r="K24">
-        <v>1.295854382050209</v>
+        <v>0.1490196920019784</v>
       </c>
       <c r="L24">
-        <v>0.2293520276085559</v>
+        <v>0.2577256770098444</v>
       </c>
       <c r="M24">
-        <v>0.2856130953917031</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,52 +1634,64 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.518743820191247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.019711754463486</v>
+        <v>4.084446947761421</v>
       </c>
       <c r="C25">
-        <v>0.1522524956174038</v>
+        <v>1.233924658262197</v>
       </c>
       <c r="D25">
-        <v>0.227541581906948</v>
+        <v>0.6946338032230699</v>
       </c>
       <c r="E25">
-        <v>0.03859675312490474</v>
+        <v>0.3325997285766249</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.986808783573764</v>
+        <v>0.3852264250986792</v>
       </c>
       <c r="H25">
-        <v>1.20337689617682</v>
+        <v>0.001454239029595961</v>
       </c>
       <c r="I25">
-        <v>1.38093802421605</v>
+        <v>0.003061211637689354</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3028099983082626</v>
       </c>
       <c r="K25">
-        <v>1.049742795153804</v>
+        <v>0.165347723818579</v>
       </c>
       <c r="L25">
-        <v>0.1963842232193116</v>
+        <v>0.2152090119172527</v>
       </c>
       <c r="M25">
-        <v>0.2347679925964101</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.399912001934354</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_45/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,49 +421,55 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.435243996924328</v>
+        <v>3.438443337311014</v>
       </c>
       <c r="C2">
-        <v>1.032275166767135</v>
+        <v>1.059895665946669</v>
       </c>
       <c r="D2">
-        <v>0.6054981229969485</v>
+        <v>0.6055490195501818</v>
       </c>
       <c r="E2">
-        <v>0.2877723527957912</v>
+        <v>0.287813404569718</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3598478731184755</v>
+        <v>0.3283198567431853</v>
       </c>
       <c r="H2">
-        <v>0.0002304849360705852</v>
+        <v>0.0002332823559523245</v>
       </c>
       <c r="I2">
-        <v>0.001120574247745587</v>
+        <v>0.001387923910547428</v>
       </c>
       <c r="J2">
-        <v>0.2985291785916075</v>
+        <v>0.330430626445505</v>
       </c>
       <c r="K2">
-        <v>0.1812616586718541</v>
+        <v>0.1717914746160432</v>
       </c>
       <c r="L2">
-        <v>0.1841311917314528</v>
+        <v>0.1078239292373802</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.03326123442698492</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1841723904783876</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -472,51 +478,57 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.336670343264927</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.295366887742034</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.994480860746364</v>
+        <v>2.998681555132919</v>
       </c>
       <c r="C3">
-        <v>0.9038890647991593</v>
+        <v>0.919944754375166</v>
       </c>
       <c r="D3">
-        <v>0.5455149680220188</v>
+        <v>0.5459545040195337</v>
       </c>
       <c r="E3">
-        <v>0.2574457066647255</v>
+        <v>0.2577998520518605</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3412234476409921</v>
+        <v>0.3129175809645517</v>
       </c>
       <c r="H3">
-        <v>1.276638541325426E-06</v>
+        <v>1.001458547200684E-07</v>
       </c>
       <c r="I3">
-        <v>0.0005738973190481111</v>
+        <v>0.0007993428489907473</v>
       </c>
       <c r="J3">
-        <v>0.2950294539561469</v>
+        <v>0.3257665090608057</v>
       </c>
       <c r="K3">
-        <v>0.191794889740434</v>
+        <v>0.1823266467176108</v>
       </c>
       <c r="L3">
-        <v>0.1630968182584667</v>
+        <v>0.1138495163840254</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.03614998487511256</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1634470321679373</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -525,51 +537,57 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.28951923031029</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.256462554287978</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.723390698706282</v>
+        <v>2.728086068305629</v>
       </c>
       <c r="C4">
-        <v>0.8254902935057657</v>
+        <v>0.8346957710129175</v>
       </c>
       <c r="D4">
-        <v>0.5088656741731654</v>
+        <v>0.5095400262478904</v>
       </c>
       <c r="E4">
-        <v>0.2388415030961681</v>
+        <v>0.2393841689004219</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3303095651103334</v>
+        <v>0.3039617384628102</v>
       </c>
       <c r="H4">
-        <v>0.0001323609853378649</v>
+        <v>0.0001048093401891936</v>
       </c>
       <c r="I4">
-        <v>0.0004414163213701805</v>
+        <v>0.0006065490845168497</v>
       </c>
       <c r="J4">
-        <v>0.2932256580889572</v>
+        <v>0.3230206154706678</v>
       </c>
       <c r="K4">
-        <v>0.1986706570201715</v>
+        <v>0.1891264130446473</v>
       </c>
       <c r="L4">
-        <v>0.1501877331267849</v>
+        <v>0.11780101361974</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.03843306538545121</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1507189278698178</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -578,51 +596,57 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.262387535390488</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.233918507751667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.612767959971222</v>
+        <v>2.617637654318116</v>
       </c>
       <c r="C5">
-        <v>0.7950018616932368</v>
+        <v>0.8014491748421619</v>
       </c>
       <c r="D5">
-        <v>0.4939641948323583</v>
+        <v>0.494733877354065</v>
       </c>
       <c r="E5">
-        <v>0.2312564466001561</v>
+        <v>0.2318754075796718</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3254755950155044</v>
+        <v>0.2999482102159376</v>
       </c>
       <c r="H5">
-        <v>0.0002507896371923835</v>
+        <v>0.0002068146254483594</v>
       </c>
       <c r="I5">
-        <v>0.0004998086886160991</v>
+        <v>0.0006447011809642689</v>
       </c>
       <c r="J5">
-        <v>0.2923065076395446</v>
+        <v>0.3216657538404917</v>
       </c>
       <c r="K5">
-        <v>0.2013364686765939</v>
+        <v>0.1917600695761088</v>
       </c>
       <c r="L5">
-        <v>0.1449212628743481</v>
+        <v>0.1193390683842797</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.03945943804924146</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1455244383561549</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -631,51 +655,57 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.250124127180442</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.223481973628353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.594366215657601</v>
+        <v>2.599262429102566</v>
       </c>
       <c r="C6">
-        <v>0.7916145104834698</v>
+        <v>0.7975711518668049</v>
       </c>
       <c r="D6">
-        <v>0.4914844806447718</v>
+        <v>0.4922701935226428</v>
       </c>
       <c r="E6">
-        <v>0.2299908766258838</v>
+        <v>0.2306226403092779</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3240584840088658</v>
+        <v>0.2987017136694732</v>
       </c>
       <c r="H6">
-        <v>0.0002747478449085516</v>
+        <v>0.0002276589865810585</v>
       </c>
       <c r="I6">
-        <v>0.0005986429987450137</v>
+        <v>0.0007564066834353511</v>
       </c>
       <c r="J6">
-        <v>0.2918326302192966</v>
+        <v>0.3211202074053929</v>
       </c>
       <c r="K6">
-        <v>0.2014995207756041</v>
+        <v>0.1919382581297615</v>
       </c>
       <c r="L6">
-        <v>0.1440407284321594</v>
+        <v>0.1194342134656079</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.03960088974669884</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1446558982505195</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -684,51 +714,57 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.246112440815438</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.219856505702609</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.721831068062897</v>
+        <v>2.726491842439316</v>
       </c>
       <c r="C7">
-        <v>0.8296494924989872</v>
+        <v>0.8380306014587973</v>
       </c>
       <c r="D7">
-        <v>0.508644194572895</v>
+        <v>0.5092997574286926</v>
       </c>
       <c r="E7">
-        <v>0.2387228363715792</v>
+        <v>0.2392503390622522</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3285460992949751</v>
+        <v>0.3048474736826421</v>
       </c>
       <c r="H7">
-        <v>0.00013458693536883</v>
+        <v>0.0001075180447238644</v>
       </c>
       <c r="I7">
-        <v>0.0006624451150072375</v>
+        <v>0.0008697917297739721</v>
       </c>
       <c r="J7">
-        <v>0.2923233593302186</v>
+        <v>0.3179156888847032</v>
       </c>
       <c r="K7">
-        <v>0.1979296796204046</v>
+        <v>0.1882012863252456</v>
       </c>
       <c r="L7">
-        <v>0.1501007083132251</v>
+        <v>0.1172411566597624</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.0382955043134019</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1506169829057171</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -737,51 +773,57 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.25675865703812</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.225497724176577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.283258854114649</v>
+        <v>3.286707014705541</v>
       </c>
       <c r="C8">
-        <v>0.9940158791972351</v>
+        <v>1.015161287014166</v>
       </c>
       <c r="D8">
-        <v>0.5847491557829301</v>
+        <v>0.5848702783658837</v>
       </c>
       <c r="E8">
-        <v>0.2772898243917723</v>
+        <v>0.2773874825534577</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3510684043573917</v>
+        <v>0.3293111071759682</v>
       </c>
       <c r="H8">
-        <v>9.186076600586901E-05</v>
+        <v>9.613669875774278E-05</v>
       </c>
       <c r="I8">
-        <v>0.001150002960627283</v>
+        <v>0.001458825695687338</v>
       </c>
       <c r="J8">
-        <v>0.2960776945968107</v>
+        <v>0.3139302623962621</v>
       </c>
       <c r="K8">
-        <v>0.1837971510973446</v>
+        <v>0.1736649570100806</v>
       </c>
       <c r="L8">
-        <v>0.1768549865494577</v>
+        <v>0.1089476343378557</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.03376369254268319</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.176952505709167</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -790,51 +832,57 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.312810123527456</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.264693476232452</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.381525444510714</v>
+        <v>4.381585661818633</v>
       </c>
       <c r="C9">
-        <v>1.311994159027734</v>
+        <v>1.362783817863715</v>
       </c>
       <c r="D9">
-        <v>0.7357396234384623</v>
+        <v>0.734834647265842</v>
       </c>
       <c r="E9">
-        <v>0.3532159215515378</v>
+        <v>0.3524866365639454</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4028393295360218</v>
+        <v>0.3752549925754778</v>
       </c>
       <c r="H9">
-        <v>0.002343175688305665</v>
+        <v>0.002195843476966219</v>
       </c>
       <c r="I9">
-        <v>0.003547086334633853</v>
+        <v>0.00368053853268524</v>
       </c>
       <c r="J9">
-        <v>0.3079495376193933</v>
+        <v>0.3235511113006879</v>
       </c>
       <c r="K9">
-        <v>0.1608849347373873</v>
+        <v>0.1500574389761304</v>
       </c>
       <c r="L9">
-        <v>0.2295210258154938</v>
+        <v>0.09587145929974206</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.02946075824674033</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2287701582487642</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -843,51 +891,57 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.448220074082144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.373668251350239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.187388206681646</v>
+        <v>5.183823976279996</v>
       </c>
       <c r="C10">
-        <v>1.547007488097847</v>
+        <v>1.614424235875504</v>
       </c>
       <c r="D10">
-        <v>0.831306390447935</v>
+        <v>0.8295148044532539</v>
       </c>
       <c r="E10">
-        <v>0.3957547551963359</v>
+        <v>0.3943169878938306</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4348232863102197</v>
+        <v>0.4191696526197433</v>
       </c>
       <c r="H10">
-        <v>0.005625298629899689</v>
+        <v>0.005198566675089555</v>
       </c>
       <c r="I10">
-        <v>0.006659018158698515</v>
+        <v>0.006438465839333496</v>
       </c>
       <c r="J10">
-        <v>0.3139994324037048</v>
+        <v>0.3046721097905305</v>
       </c>
       <c r="K10">
-        <v>0.143909882179539</v>
+        <v>0.1315626972588717</v>
       </c>
       <c r="L10">
-        <v>0.2554972645938989</v>
+        <v>0.08645044683459169</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.02766893412016458</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.253991781549928</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -896,51 +950,57 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.529233750704265</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.418499966186658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.54890539055225</v>
+        <v>5.543627008894134</v>
       </c>
       <c r="C11">
-        <v>1.626257019740933</v>
+        <v>1.67590795359979</v>
       </c>
       <c r="D11">
-        <v>0.7334878833093796</v>
+        <v>0.7314444972492709</v>
       </c>
       <c r="E11">
-        <v>0.3055518857387369</v>
+        <v>0.3039291707284519</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.3752693573977979</v>
+        <v>0.3962202349370898</v>
       </c>
       <c r="H11">
-        <v>0.0241159337993011</v>
+        <v>0.02359771879516614</v>
       </c>
       <c r="I11">
-        <v>0.008146998316702181</v>
+        <v>0.007829134413976035</v>
       </c>
       <c r="J11">
-        <v>0.2797035754920785</v>
+        <v>0.2361878619916169</v>
       </c>
       <c r="K11">
-        <v>0.1191551371601705</v>
+        <v>0.1097044064628605</v>
       </c>
       <c r="L11">
-        <v>0.1686865670976161</v>
+        <v>0.07826141935512565</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.02076936964646503</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1669738636667972</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -949,51 +1009,57 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.33137408385403</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.20614300697622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.683825352936708</v>
+        <v>5.678073978219686</v>
       </c>
       <c r="C12">
-        <v>1.635022794393478</v>
+        <v>1.668553428371638</v>
       </c>
       <c r="D12">
-        <v>0.6365147674674745</v>
+        <v>0.6345195520578102</v>
       </c>
       <c r="E12">
-        <v>0.2318908680796312</v>
+        <v>0.2303152376376119</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.3237976635208639</v>
+        <v>0.3609194302250955</v>
       </c>
       <c r="H12">
-        <v>0.06232444832912876</v>
+        <v>0.06180423743599306</v>
       </c>
       <c r="I12">
-        <v>0.008325431062569777</v>
+        <v>0.007953066834926581</v>
       </c>
       <c r="J12">
-        <v>0.2520587955012701</v>
+        <v>0.2026933686267185</v>
       </c>
       <c r="K12">
-        <v>0.105502313443373</v>
+        <v>0.09928393685486281</v>
       </c>
       <c r="L12">
-        <v>0.1091659829829723</v>
+        <v>0.07503922228908488</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.01659314843136794</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1074898108342381</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1002,51 +1068,57 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.164434054364051</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.045969314588845</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.650744731504005</v>
+        <v>5.645589990064252</v>
       </c>
       <c r="C13">
-        <v>1.597261631184892</v>
+        <v>1.616969840726085</v>
       </c>
       <c r="D13">
-        <v>0.535152402505048</v>
+        <v>0.5334201314832399</v>
       </c>
       <c r="E13">
-        <v>0.1670540288408198</v>
+        <v>0.1656885266333958</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.272909125382732</v>
+        <v>0.3069062785192926</v>
       </c>
       <c r="H13">
-        <v>0.1172682413786248</v>
+        <v>0.1168194511737966</v>
       </c>
       <c r="I13">
-        <v>0.007789920842552256</v>
+        <v>0.007489049476826715</v>
       </c>
       <c r="J13">
-        <v>0.2264976635296847</v>
+        <v>0.1909878681991586</v>
       </c>
       <c r="K13">
-        <v>0.0981565607877064</v>
+        <v>0.09531179078907615</v>
       </c>
       <c r="L13">
-        <v>0.06730977532949112</v>
+        <v>0.07417594994795929</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.01407181656038414</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06584573900601143</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1055,51 +1127,57 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.002988227603694</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.9113355734268538</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.551472211839894</v>
+        <v>5.547181139655208</v>
       </c>
       <c r="C14">
-        <v>1.5513202522352</v>
+        <v>1.562319177831284</v>
       </c>
       <c r="D14">
-        <v>0.4636952269610504</v>
+        <v>0.4622171239818726</v>
       </c>
       <c r="E14">
-        <v>0.1275911984157787</v>
+        <v>0.1264248944616178</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.2379204060295379</v>
+        <v>0.2627875660511663</v>
       </c>
       <c r="H14">
-        <v>0.165953331900738</v>
+        <v>0.1655787481439006</v>
       </c>
       <c r="I14">
-        <v>0.00719286951764353</v>
+        <v>0.00700672499529631</v>
       </c>
       <c r="J14">
-        <v>0.2096727877917814</v>
+        <v>0.190026192306803</v>
       </c>
       <c r="K14">
-        <v>0.09611113589296183</v>
+        <v>0.09523815753045417</v>
       </c>
       <c r="L14">
-        <v>0.04875379744547992</v>
+        <v>0.07437981501197921</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.01316653726251538</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.04749621792823255</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1108,51 +1186,57 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.8935062633010062</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.8270853927947854</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.491434252074498</v>
+        <v>5.487564589097644</v>
       </c>
       <c r="C15">
-        <v>1.532266966107613</v>
+        <v>1.541475383497925</v>
       </c>
       <c r="D15">
-        <v>0.4447846838756675</v>
+        <v>0.4434045245230891</v>
       </c>
       <c r="E15">
-        <v>0.1184740563272868</v>
+        <v>0.1173842973551942</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.2287434417658858</v>
+        <v>0.248706665397016</v>
       </c>
       <c r="H15">
-        <v>0.1781913491151386</v>
+        <v>0.1778491386093179</v>
       </c>
       <c r="I15">
-        <v>0.007005472123965184</v>
+        <v>0.006893181124700831</v>
       </c>
       <c r="J15">
-        <v>0.2056391683611309</v>
+        <v>0.1926492369631418</v>
       </c>
       <c r="K15">
-        <v>0.09652570847539965</v>
+        <v>0.09606588029987978</v>
       </c>
       <c r="L15">
-        <v>0.04554027668390237</v>
+        <v>0.07465428485615266</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.01318563512704873</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.04436467327009197</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1161,51 +1245,57 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.8655631571966893</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.8083396748597949</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.150262738089225</v>
+        <v>5.148319570930312</v>
       </c>
       <c r="C16">
-        <v>1.442083025325815</v>
+        <v>1.453893020701742</v>
       </c>
       <c r="D16">
-        <v>0.4270960282114658</v>
+        <v>0.4260743379464174</v>
       </c>
       <c r="E16">
-        <v>0.1154250764512277</v>
+        <v>0.1146171355930825</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.2248824358878352</v>
+        <v>0.2227534612593729</v>
       </c>
       <c r="H16">
-        <v>0.1642404707206566</v>
+        <v>0.1640324706592793</v>
       </c>
       <c r="I16">
-        <v>0.005808608711151741</v>
+        <v>0.00592842731864085</v>
       </c>
       <c r="J16">
-        <v>0.2077820870901945</v>
+        <v>0.221205563875408</v>
       </c>
       <c r="K16">
-        <v>0.104249514181828</v>
+        <v>0.1036179512083739</v>
       </c>
       <c r="L16">
-        <v>0.04438128153544074</v>
+        <v>0.0768077371048097</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.01519261076619172</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.04352023026996577</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1214,51 +1304,57 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.8616400430403814</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.8314327949346563</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.941957750990127</v>
+        <v>4.940941778934814</v>
       </c>
       <c r="C17">
-        <v>1.397611865630211</v>
+        <v>1.414853813347747</v>
       </c>
       <c r="D17">
-        <v>0.4504802287524683</v>
+        <v>0.4496086377205586</v>
       </c>
       <c r="E17">
-        <v>0.1326638682461301</v>
+        <v>0.1319743406450762</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.2401108657826327</v>
+        <v>0.2277235303961049</v>
       </c>
       <c r="H17">
-        <v>0.1258903690687134</v>
+        <v>0.1257376615036065</v>
       </c>
       <c r="I17">
-        <v>0.005251730729266768</v>
+        <v>0.005478793376420654</v>
       </c>
       <c r="J17">
-        <v>0.2182274971594538</v>
+        <v>0.2432647139547299</v>
       </c>
       <c r="K17">
-        <v>0.111150487305598</v>
+        <v>0.1097821602030371</v>
       </c>
       <c r="L17">
-        <v>0.05138303514743825</v>
+        <v>0.07883892942537385</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.01707185267092015</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.05065691081018642</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1267,51 +1363,57 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.9156644624730745</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.8918257587291265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.823695089601131</v>
+        <v>4.823005195678434</v>
       </c>
       <c r="C18">
-        <v>1.382978524963562</v>
+        <v>1.410380126886821</v>
       </c>
       <c r="D18">
-        <v>0.5151411013401344</v>
+        <v>0.5142808746767571</v>
       </c>
       <c r="E18">
-        <v>0.1751803218953718</v>
+        <v>0.1744986964018373</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.2761435511929946</v>
+        <v>0.256621243414088</v>
       </c>
       <c r="H18">
-        <v>0.07302726061870857</v>
+        <v>0.07288607123788893</v>
       </c>
       <c r="I18">
-        <v>0.004863115571370535</v>
+        <v>0.005076803934517038</v>
       </c>
       <c r="J18">
-        <v>0.2382435439720396</v>
+        <v>0.2672854663682926</v>
       </c>
       <c r="K18">
-        <v>0.1196008915827473</v>
+        <v>0.1167519632909331</v>
       </c>
       <c r="L18">
-        <v>0.07567532262719467</v>
+        <v>0.0815028034818357</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.01940343249299703</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.07496461298661572</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1320,51 +1422,57 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.033902688190324</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.003780721492177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.785969569897077</v>
+        <v>4.785129147326245</v>
       </c>
       <c r="C19">
-        <v>1.402075577609992</v>
+        <v>1.443205329348643</v>
       </c>
       <c r="D19">
-        <v>0.6138552674993605</v>
+        <v>0.612885754888481</v>
       </c>
       <c r="E19">
-        <v>0.2440469457845964</v>
+        <v>0.2432753495527322</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.3266685418198847</v>
+        <v>0.3009382785714578</v>
       </c>
       <c r="H19">
-        <v>0.02833284494346344</v>
+        <v>0.0281659246308692</v>
       </c>
       <c r="I19">
-        <v>0.005133412590997644</v>
+        <v>0.005355748280126527</v>
       </c>
       <c r="J19">
-        <v>0.2644446109957101</v>
+        <v>0.2928378951019681</v>
       </c>
       <c r="K19">
-        <v>0.1299621598982554</v>
+        <v>0.1247638255685315</v>
       </c>
       <c r="L19">
-        <v>0.126465327053765</v>
+        <v>0.08472571218564973</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.02231147322509308</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1256646294387807</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1373,51 +1481,57 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.19587780220894</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.150510352684492</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.975500138907989</v>
+        <v>4.973129184542643</v>
       </c>
       <c r="C20">
-        <v>1.499621506805624</v>
+        <v>1.565018361084299</v>
       </c>
       <c r="D20">
-        <v>0.8053672180585636</v>
+        <v>0.8038818663318636</v>
       </c>
       <c r="E20">
-        <v>0.3839545025139017</v>
+        <v>0.3827611276140175</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.420593335537788</v>
+        <v>0.3926953768339416</v>
       </c>
       <c r="H20">
-        <v>0.004609509759246677</v>
+        <v>0.004284208016582802</v>
       </c>
       <c r="I20">
-        <v>0.006428265949937284</v>
+        <v>0.006496864101476874</v>
       </c>
       <c r="J20">
-        <v>0.3093776623323095</v>
+        <v>0.3207824021116323</v>
       </c>
       <c r="K20">
-        <v>0.14587726481939</v>
+        <v>0.1350917068398605</v>
       </c>
       <c r="L20">
-        <v>0.2480662111744323</v>
+        <v>0.08836306769288704</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.02752808031788589</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2468218725177849</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1426,51 +1540,57 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.4892518880973</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.400319258515879</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.595039676539386</v>
+        <v>5.588568457340841</v>
       </c>
       <c r="C21">
-        <v>1.68442975429997</v>
+        <v>1.752064554575327</v>
       </c>
       <c r="D21">
-        <v>0.9052847845343024</v>
+        <v>0.9027057730510251</v>
       </c>
       <c r="E21">
-        <v>0.4378092211373428</v>
+        <v>0.4357422581801131</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4608780015463481</v>
+        <v>0.4932604986424138</v>
       </c>
       <c r="H21">
-        <v>0.007825347502494806</v>
+        <v>0.007114908051158997</v>
       </c>
       <c r="I21">
-        <v>0.009250687501212163</v>
+        <v>0.008819315291171748</v>
       </c>
       <c r="J21">
-        <v>0.3220043627216</v>
+        <v>0.2477563368104185</v>
       </c>
       <c r="K21">
-        <v>0.1375689707810679</v>
+        <v>0.1207794921685128</v>
       </c>
       <c r="L21">
-        <v>0.2882527227532421</v>
+        <v>0.08157816597355261</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.02641632152320561</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2860725614751942</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1479,51 +1599,57 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.601501905724632</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.42181073277618</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.000147888448737</v>
+        <v>5.990690250896591</v>
       </c>
       <c r="C22">
-        <v>1.797809219801479</v>
+        <v>1.864713133051282</v>
       </c>
       <c r="D22">
-        <v>0.9624662326128828</v>
+        <v>0.9591608002557166</v>
       </c>
       <c r="E22">
-        <v>0.4662403543417</v>
+        <v>0.4635978706589938</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4858423824768323</v>
+        <v>0.5662076341754414</v>
       </c>
       <c r="H22">
-        <v>0.01028963095910657</v>
+        <v>0.00927148772501124</v>
       </c>
       <c r="I22">
-        <v>0.01110423872238187</v>
+        <v>0.01020410336833955</v>
       </c>
       <c r="J22">
-        <v>0.3296653682915576</v>
+        <v>0.2048887364110072</v>
       </c>
       <c r="K22">
-        <v>0.1324953745983013</v>
+        <v>0.1116146107605562</v>
       </c>
       <c r="L22">
-        <v>0.3080332714109915</v>
+        <v>0.07749578469339635</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.02591954257032647</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3052278091949603</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1532,51 +1658,57 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.670723248835287</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.427297030588051</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.783990167107902</v>
+        <v>5.776257009406265</v>
       </c>
       <c r="C23">
-        <v>1.731614824349776</v>
+        <v>1.800956050218247</v>
       </c>
       <c r="D23">
-        <v>0.9319279308745365</v>
+        <v>0.9290519864979956</v>
       </c>
       <c r="E23">
-        <v>0.4510688454570513</v>
+        <v>0.4487663883592674</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4744196566289816</v>
+        <v>0.5210432035732566</v>
       </c>
       <c r="H23">
-        <v>0.008942968435432463</v>
+        <v>0.008105786625142747</v>
       </c>
       <c r="I23">
-        <v>0.009823691500518095</v>
+        <v>0.009129012812749693</v>
       </c>
       <c r="J23">
-        <v>0.3265547579416079</v>
+        <v>0.2348069459627098</v>
       </c>
       <c r="K23">
-        <v>0.1359894142733697</v>
+        <v>0.117588030932998</v>
       </c>
       <c r="L23">
-        <v>0.2974818395517644</v>
+        <v>0.07996534875988548</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.02668026376764843</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2950455274541639</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1585,51 +1717,57 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.63985700914148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.437731960649273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.965989146804759</v>
+        <v>4.963615832234098</v>
       </c>
       <c r="C24">
-        <v>1.49128050302312</v>
+        <v>1.558198603286883</v>
       </c>
       <c r="D24">
-        <v>0.817065127523108</v>
+        <v>0.8155668162135044</v>
       </c>
       <c r="E24">
-        <v>0.3938609344103483</v>
+        <v>0.3926559693314076</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4297940137360001</v>
+        <v>0.4005831679763361</v>
       </c>
       <c r="H24">
-        <v>0.004621337337896159</v>
+        <v>0.004290896689592372</v>
       </c>
       <c r="I24">
-        <v>0.006003563822720714</v>
+        <v>0.00597081256362042</v>
       </c>
       <c r="J24">
-        <v>0.3141492773807784</v>
+        <v>0.3257877473699864</v>
       </c>
       <c r="K24">
-        <v>0.1490196920019784</v>
+        <v>0.1376349511943307</v>
       </c>
       <c r="L24">
-        <v>0.2577256770098444</v>
+        <v>0.08933159133420077</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.02847725582368632</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2564691306984486</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1638,51 +1776,57 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.518743820191247</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.427479737800496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.084446947761421</v>
+        <v>4.08562951573191</v>
       </c>
       <c r="C25">
-        <v>1.233924658262197</v>
+        <v>1.277411661582619</v>
       </c>
       <c r="D25">
-        <v>0.6946338032230699</v>
+        <v>0.6940435393118491</v>
       </c>
       <c r="E25">
-        <v>0.3325997285766249</v>
+        <v>0.3321237849587177</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.3852264250986792</v>
+        <v>0.3557209158203563</v>
       </c>
       <c r="H25">
-        <v>0.001454239029595961</v>
+        <v>0.001377021164745473</v>
       </c>
       <c r="I25">
-        <v>0.003061211637689354</v>
+        <v>0.003368445694713174</v>
       </c>
       <c r="J25">
-        <v>0.3028099983082626</v>
+        <v>0.3251329172941269</v>
       </c>
       <c r="K25">
-        <v>0.165347723818579</v>
+        <v>0.1552909965190228</v>
       </c>
       <c r="L25">
-        <v>0.2152090119172527</v>
+        <v>0.09882880818334883</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.0298964431344082</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2147225832615831</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1691,7 +1835,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.399912001934354</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.337937166340396</v>
       </c>
     </row>
   </sheetData>
